--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T678"/>
+  <dimension ref="A1:T679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,41 +51795,41 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N643" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O643" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="P643" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>675</v>
+        <v>1071</v>
       </c>
       <c r="T643" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
     </row>
     <row r="644">
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N644" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O644" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P644" t="n">
-        <v>235000</v>
+        <v>270000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="T644" t="n">
         <v>400</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N645" t="n">
         <v>230000</v>
       </c>
       <c r="O645" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P645" t="n">
-        <v>230000</v>
+        <v>235000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="T645" t="n">
         <v>400</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N646" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O646" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P646" t="n">
-        <v>190000</v>
+        <v>230000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="T646" t="n">
         <v>400</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N647" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O647" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P647" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T647" t="n">
         <v>400</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N648" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O648" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P648" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="T648" t="n">
         <v>400</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N649" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O649" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P649" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T649" t="n">
         <v>400</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N650" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O650" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P650" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T650" t="n">
         <v>400</v>
@@ -52444,32 +52444,32 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="N651" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O651" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P651" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="T651" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="652">
@@ -52520,36 +52520,36 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="N652" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="O652" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P652" t="n">
-        <v>215714</v>
+        <v>12000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>539</v>
+        <v>667</v>
       </c>
       <c r="T652" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="653">
@@ -52604,32 +52604,32 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="N653" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="O653" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P653" t="n">
-        <v>10000</v>
+        <v>215714</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="T653" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="654">
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N654" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O654" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P654" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T654" t="n">
         <v>18</v>
@@ -52755,41 +52755,41 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="N655" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="O655" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="P655" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="T655" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="656">
@@ -52844,7 +52844,7 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N656" t="n">
         <v>170000</v>
@@ -52862,7 +52862,7 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S656" t="n">
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N657" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O657" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P657" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52942,11 +52942,11 @@
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="T657" t="n">
         <v>400</v>
@@ -53004,7 +53004,7 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N658" t="n">
         <v>130000</v>
@@ -53022,7 +53022,7 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S658" t="n">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,29 +53075,29 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N659" t="n">
-        <v>12000</v>
+        <v>130000</v>
       </c>
       <c r="O659" t="n">
-        <v>12000</v>
+        <v>130000</v>
       </c>
       <c r="P659" t="n">
-        <v>12000</v>
+        <v>130000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
@@ -53106,10 +53106,10 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>750</v>
+        <v>325</v>
       </c>
       <c r="T659" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="660">
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N660" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O660" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T660" t="n">
         <v>16</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N661" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O661" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P661" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T661" t="n">
         <v>16</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N662" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O662" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P662" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T662" t="n">
         <v>16</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N663" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O663" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P663" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T663" t="n">
         <v>16</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="N664" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O664" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P664" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>688</v>
+        <v>875</v>
       </c>
       <c r="T664" t="n">
         <v>16</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
         <v>125</v>
       </c>
       <c r="N665" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O665" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P665" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T665" t="n">
         <v>16</v>
@@ -53635,29 +53635,29 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N666" t="n">
-        <v>300000</v>
+        <v>9000</v>
       </c>
       <c r="O666" t="n">
-        <v>300000</v>
+        <v>9000</v>
       </c>
       <c r="P666" t="n">
-        <v>300000</v>
+        <v>9000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
@@ -53666,10 +53666,10 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T666" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="667">
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N667" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O667" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P667" t="n">
-        <v>255000</v>
+        <v>300000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T667" t="n">
         <v>400</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N668" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="O668" t="n">
-        <v>170000</v>
+        <v>260000</v>
       </c>
       <c r="P668" t="n">
-        <v>170000</v>
+        <v>255000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>425</v>
+        <v>638</v>
       </c>
       <c r="T668" t="n">
         <v>400</v>
@@ -53884,16 +53884,16 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N669" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O669" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P669" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53902,11 +53902,11 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T669" t="n">
         <v>400</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N670" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O670" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P670" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T670" t="n">
         <v>400</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N671" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O671" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P671" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="T671" t="n">
         <v>400</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N672" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="O672" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P672" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54142,11 +54142,11 @@
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="T672" t="n">
         <v>400</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N673" t="n">
-        <v>380000</v>
+        <v>80000</v>
       </c>
       <c r="O673" t="n">
-        <v>380000</v>
+        <v>80000</v>
       </c>
       <c r="P673" t="n">
-        <v>380000</v>
+        <v>80000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="T673" t="n">
         <v>400</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N674" t="n">
-        <v>350000</v>
+        <v>380000</v>
       </c>
       <c r="O674" t="n">
-        <v>350000</v>
+        <v>380000</v>
       </c>
       <c r="P674" t="n">
-        <v>350000</v>
+        <v>380000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>875</v>
+        <v>950</v>
       </c>
       <c r="T674" t="n">
         <v>400</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N675" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="O675" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P675" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>700</v>
+        <v>875</v>
       </c>
       <c r="T675" t="n">
         <v>400</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N676" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O676" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P676" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="T676" t="n">
         <v>400</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N677" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="O677" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P677" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="T677" t="n">
         <v>400</v>
@@ -54600,35 +54600,115 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M678" t="n">
+        <v>15</v>
+      </c>
+      <c r="N678" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O678" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P678" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q678" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R678" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S678" t="n">
+        <v>425</v>
+      </c>
+      <c r="T678" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>6</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D679" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E679" t="n">
+        <v>13</v>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G679" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>Springtime</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M678" t="n">
+      <c r="M679" t="n">
         <v>25</v>
       </c>
-      <c r="N678" t="n">
+      <c r="N679" t="n">
         <v>140000</v>
       </c>
-      <c r="O678" t="n">
+      <c r="O679" t="n">
         <v>140000</v>
       </c>
-      <c r="P678" t="n">
+      <c r="P679" t="n">
         <v>140000</v>
       </c>
-      <c r="Q678" t="inlineStr">
+      <c r="Q679" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R678" t="inlineStr">
+      <c r="R679" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S678" t="n">
+      <c r="S679" t="n">
         <v>350</v>
       </c>
-      <c r="T678" t="n">
+      <c r="T679" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T687"/>
+  <dimension ref="A1:T690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40195,41 +40195,41 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="N498" t="n">
-        <v>12000</v>
+        <v>470000</v>
       </c>
       <c r="O498" t="n">
-        <v>13000</v>
+        <v>470000</v>
       </c>
       <c r="P498" t="n">
-        <v>12500</v>
+        <v>470000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>781</v>
+        <v>1119</v>
       </c>
       <c r="T498" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="499">
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40275,41 +40275,41 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="N499" t="n">
-        <v>9000</v>
+        <v>440000</v>
       </c>
       <c r="O499" t="n">
-        <v>9000</v>
+        <v>440000</v>
       </c>
       <c r="P499" t="n">
-        <v>9000</v>
+        <v>440000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>562</v>
+        <v>1048</v>
       </c>
       <c r="T499" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="500">
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,36 +40360,36 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="N500" t="n">
-        <v>12000</v>
+        <v>410000</v>
       </c>
       <c r="O500" t="n">
-        <v>12000</v>
+        <v>410000</v>
       </c>
       <c r="P500" t="n">
-        <v>12000</v>
+        <v>410000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>750</v>
+        <v>976</v>
       </c>
       <c r="T500" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="501">
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="N501" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P501" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>562</v>
+        <v>781</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,20 +40524,20 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="N502" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="P502" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
@@ -40546,10 +40546,10 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="T502" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="503">
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40595,29 +40595,29 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N503" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O503" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P503" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40626,10 +40626,10 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="T503" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="504">
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40675,29 +40675,29 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N504" t="n">
-        <v>240000</v>
+        <v>9000</v>
       </c>
       <c r="O504" t="n">
-        <v>240000</v>
+        <v>9000</v>
       </c>
       <c r="P504" t="n">
-        <v>240000</v>
+        <v>9000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
@@ -40706,10 +40706,10 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="T504" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,7 +40764,7 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N505" t="n">
         <v>180000</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N506" t="n">
-        <v>150000</v>
+        <v>270000</v>
       </c>
       <c r="O506" t="n">
-        <v>160000</v>
+        <v>270000</v>
       </c>
       <c r="P506" t="n">
-        <v>154545</v>
+        <v>270000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>386</v>
+        <v>675</v>
       </c>
       <c r="T506" t="n">
         <v>400</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N507" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O507" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P507" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T507" t="n">
         <v>400</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -40995,25 +40995,25 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N508" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O508" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P508" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41022,11 +41022,11 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T508" t="n">
         <v>400</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N509" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O509" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P509" t="n">
-        <v>130000</v>
+        <v>154545</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="T509" t="n">
         <v>400</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N510" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="O510" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P510" t="n">
-        <v>227273</v>
+        <v>180000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41182,11 +41182,11 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>568</v>
+        <v>450</v>
       </c>
       <c r="T510" t="n">
         <v>400</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N511" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O511" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P511" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41262,11 +41262,11 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="T511" t="n">
         <v>400</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41315,41 +41315,41 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="N512" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="O512" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="P512" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>938</v>
+        <v>325</v>
       </c>
       <c r="T512" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="513">
@@ -41395,29 +41395,29 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="N513" t="n">
-        <v>15000</v>
+        <v>220000</v>
       </c>
       <c r="O513" t="n">
-        <v>15000</v>
+        <v>240000</v>
       </c>
       <c r="P513" t="n">
-        <v>15000</v>
+        <v>227273</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R513" t="inlineStr">
@@ -41426,10 +41426,10 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>750</v>
+        <v>568</v>
       </c>
       <c r="T513" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="514">
@@ -41475,41 +41475,41 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N514" t="n">
-        <v>17000</v>
+        <v>180000</v>
       </c>
       <c r="O514" t="n">
-        <v>17000</v>
+        <v>180000</v>
       </c>
       <c r="P514" t="n">
-        <v>17000</v>
+        <v>180000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1062</v>
+        <v>450</v>
       </c>
       <c r="T514" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="515">
@@ -41560,36 +41560,36 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N515" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O515" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P515" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="T515" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="516">
@@ -41640,36 +41640,36 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="N516" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O516" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P516" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 20 kilos empedrada</t>
         </is>
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S516" t="n">
         <v>750</v>
       </c>
       <c r="T516" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="517">
@@ -41720,36 +41720,36 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="N517" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O517" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P517" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S517" t="n">
-        <v>650</v>
+        <v>1062</v>
       </c>
       <c r="T517" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="518">
@@ -41800,24 +41800,24 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N518" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O518" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P518" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R518" t="inlineStr">
@@ -41826,10 +41826,10 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T518" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519">
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,32 +41884,32 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N519" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O519" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="P519" t="n">
-        <v>155833</v>
+        <v>12000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="T519" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="520">
@@ -41955,41 +41955,41 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="N520" t="n">
-        <v>120000</v>
+        <v>13000</v>
       </c>
       <c r="O520" t="n">
-        <v>120000</v>
+        <v>13000</v>
       </c>
       <c r="P520" t="n">
-        <v>120000</v>
+        <v>13000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 20 kilos empedrada</t>
         </is>
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="T520" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521">
@@ -42035,29 +42035,29 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="N521" t="n">
-        <v>230000</v>
+        <v>8000</v>
       </c>
       <c r="O521" t="n">
-        <v>230000</v>
+        <v>8000</v>
       </c>
       <c r="P521" t="n">
-        <v>230000</v>
+        <v>8000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 20 kilos empedrada</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
@@ -42066,10 +42066,10 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="T521" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="522">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N522" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="O522" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="P522" t="n">
-        <v>230000</v>
+        <v>155833</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>575</v>
+        <v>390</v>
       </c>
       <c r="T522" t="n">
         <v>400</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N523" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O523" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P523" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42222,11 +42222,11 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="T523" t="n">
         <v>400</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N524" t="n">
-        <v>140000</v>
+        <v>230000</v>
       </c>
       <c r="O524" t="n">
-        <v>140000</v>
+        <v>230000</v>
       </c>
       <c r="P524" t="n">
-        <v>140000</v>
+        <v>230000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>350</v>
+        <v>575</v>
       </c>
       <c r="T524" t="n">
         <v>400</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>O'Henry</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N525" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O525" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P525" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42382,11 +42382,11 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>400</v>
+        <v>575</v>
       </c>
       <c r="T525" t="n">
         <v>400</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>O'Henry</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N526" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O526" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P526" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42462,11 +42462,11 @@
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="T526" t="n">
         <v>400</v>
@@ -42515,25 +42515,25 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N527" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O527" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P527" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42542,11 +42542,11 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="T527" t="n">
         <v>400</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>O'Henry</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N528" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O528" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P528" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="T528" t="n">
         <v>400</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>O'Henry</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,7 +42684,7 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N529" t="n">
         <v>140000</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N530" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O530" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P530" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="T530" t="n">
         <v>400</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42835,25 +42835,25 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M531" t="n">
         <v>20</v>
       </c>
       <c r="N531" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O531" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P531" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="T531" t="n">
         <v>400</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N532" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O532" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P532" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42942,11 +42942,11 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="T532" t="n">
         <v>400</v>
@@ -42995,25 +42995,25 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N533" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O533" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P533" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="T533" t="n">
         <v>400</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N534" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="O534" t="n">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="P534" t="n">
-        <v>255000</v>
+        <v>130000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>638</v>
+        <v>325</v>
       </c>
       <c r="T534" t="n">
         <v>400</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N535" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="O535" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P535" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="T535" t="n">
         <v>400</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N536" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="O536" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="P536" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>675</v>
+        <v>350</v>
       </c>
       <c r="T536" t="n">
         <v>400</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43327,13 +43327,13 @@
         <v>14</v>
       </c>
       <c r="N537" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O537" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P537" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T537" t="n">
         <v>400</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44522</v>
+        <v>44279</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43484,32 +43484,32 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N539" t="n">
-        <v>20000</v>
+        <v>270000</v>
       </c>
       <c r="O539" t="n">
-        <v>20000</v>
+        <v>270000</v>
       </c>
       <c r="P539" t="n">
-        <v>20000</v>
+        <v>270000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1333</v>
+        <v>675</v>
       </c>
       <c r="T539" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="540">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44522</v>
+        <v>44279</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43564,32 +43564,32 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="N540" t="n">
-        <v>18000</v>
+        <v>230000</v>
       </c>
       <c r="O540" t="n">
-        <v>18000</v>
+        <v>240000</v>
       </c>
       <c r="P540" t="n">
-        <v>18000</v>
+        <v>235000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1200</v>
+        <v>588</v>
       </c>
       <c r="T540" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="541">
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44522</v>
+        <v>44279</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,32 +43644,32 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N541" t="n">
-        <v>15000</v>
+        <v>220000</v>
       </c>
       <c r="O541" t="n">
-        <v>15000</v>
+        <v>220000</v>
       </c>
       <c r="P541" t="n">
-        <v>15000</v>
+        <v>220000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="T541" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="542">
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,32 +43724,32 @@
         </is>
       </c>
       <c r="M542" t="n">
+        <v>100</v>
+      </c>
+      <c r="N542" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O542" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P542" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q542" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R542" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S542" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T542" t="n">
         <v>15</v>
-      </c>
-      <c r="N542" t="n">
-        <v>480000</v>
-      </c>
-      <c r="O542" t="n">
-        <v>480000</v>
-      </c>
-      <c r="P542" t="n">
-        <v>480000</v>
-      </c>
-      <c r="Q542" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R542" t="inlineStr">
-        <is>
-          <t>Paine</t>
-        </is>
-      </c>
-      <c r="S542" t="n">
-        <v>1143</v>
-      </c>
-      <c r="T542" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="543">
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,32 +43804,32 @@
         </is>
       </c>
       <c r="M543" t="n">
+        <v>50</v>
+      </c>
+      <c r="N543" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O543" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P543" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q543" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R543" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S543" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T543" t="n">
         <v>15</v>
-      </c>
-      <c r="N543" t="n">
-        <v>450000</v>
-      </c>
-      <c r="O543" t="n">
-        <v>450000</v>
-      </c>
-      <c r="P543" t="n">
-        <v>450000</v>
-      </c>
-      <c r="Q543" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R543" t="inlineStr">
-        <is>
-          <t>Paine</t>
-        </is>
-      </c>
-      <c r="S543" t="n">
-        <v>1071</v>
-      </c>
-      <c r="T543" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43875,29 +43875,29 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N544" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O544" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P544" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
@@ -43906,10 +43906,10 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T544" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="545">
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43955,41 +43955,41 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="N545" t="n">
-        <v>14000</v>
+        <v>480000</v>
       </c>
       <c r="O545" t="n">
-        <v>14000</v>
+        <v>480000</v>
       </c>
       <c r="P545" t="n">
-        <v>14000</v>
+        <v>480000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>875</v>
+        <v>1143</v>
       </c>
       <c r="T545" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="546">
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,32 +44044,32 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N546" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="O546" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="P546" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>625</v>
+        <v>1071</v>
       </c>
       <c r="T546" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="547">
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,7 +44124,7 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N547" t="n">
         <v>12000</v>
@@ -44195,25 +44195,25 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N548" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O548" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P548" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N549" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O549" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P549" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,32 +44364,32 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N550" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="O550" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="P550" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T550" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="551">
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44444,32 +44444,32 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N551" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="O551" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T551" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="552">
@@ -44515,41 +44515,41 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N552" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="O552" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="P552" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T552" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="553">
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N553" t="n">
-        <v>130000</v>
+        <v>320000</v>
       </c>
       <c r="O553" t="n">
-        <v>130000</v>
+        <v>320000</v>
       </c>
       <c r="P553" t="n">
-        <v>130000</v>
+        <v>320000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>325</v>
+        <v>800</v>
       </c>
       <c r="T553" t="n">
         <v>400</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N554" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O554" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P554" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="T554" t="n">
         <v>400</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N555" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O555" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P555" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="T555" t="n">
         <v>400</v>
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N556" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O556" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P556" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="T556" t="n">
         <v>400</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44915,7 +44915,7 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N557" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O557" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P557" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44942,11 +44942,11 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T557" t="n">
         <v>400</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N558" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="O558" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="P558" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45022,11 +45022,11 @@
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>575</v>
+        <v>425</v>
       </c>
       <c r="T558" t="n">
         <v>400</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N559" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O559" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P559" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="T559" t="n">
         <v>400</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N560" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O560" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P560" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="T560" t="n">
         <v>400</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N561" t="n">
-        <v>190000</v>
+        <v>230000</v>
       </c>
       <c r="O561" t="n">
-        <v>190000</v>
+        <v>230000</v>
       </c>
       <c r="P561" t="n">
-        <v>190000</v>
+        <v>230000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="T561" t="n">
         <v>400</v>
@@ -45315,41 +45315,41 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N562" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="O562" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="P562" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T562" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="563">
@@ -45395,7 +45395,7 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -45404,20 +45404,20 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N563" t="n">
-        <v>16000</v>
+        <v>230000</v>
       </c>
       <c r="O563" t="n">
-        <v>16000</v>
+        <v>230000</v>
       </c>
       <c r="P563" t="n">
-        <v>16000</v>
+        <v>230000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
@@ -45426,10 +45426,10 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1000</v>
+        <v>575</v>
       </c>
       <c r="T563" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="564">
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
         <v>8</v>
       </c>
       <c r="N564" t="n">
-        <v>230000</v>
+        <v>190000</v>
       </c>
       <c r="O564" t="n">
-        <v>230000</v>
+        <v>190000</v>
       </c>
       <c r="P564" t="n">
-        <v>230000</v>
+        <v>190000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="T564" t="n">
         <v>400</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45555,29 +45555,29 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N565" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="O565" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="P565" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R565" t="inlineStr">
@@ -45586,10 +45586,10 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="T565" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="566">
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N566" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O566" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P566" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45715,29 +45715,29 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="N567" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P567" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R567" t="inlineStr">
@@ -45746,10 +45746,10 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T567" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="568">
@@ -45795,29 +45795,29 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="N568" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O568" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P568" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R568" t="inlineStr">
@@ -45829,7 +45829,7 @@
         <v>500</v>
       </c>
       <c r="T568" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="569">
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45884,20 +45884,20 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N569" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O569" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P569" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R569" t="inlineStr">
@@ -45906,10 +45906,10 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="T569" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="570">
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="N570" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O570" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T570" t="n">
         <v>16</v>
@@ -46035,41 +46035,41 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="N571" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="O571" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P571" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S571" t="n">
         <v>500</v>
       </c>
       <c r="T571" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="572">
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N572" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="O572" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="P572" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="T572" t="n">
         <v>400</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="N573" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O573" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P573" t="n">
-        <v>9833</v>
+        <v>12000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>615</v>
+        <v>750</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46284,20 +46284,20 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N574" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P574" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R574" t="inlineStr">
@@ -46306,10 +46306,10 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T574" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="575">
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N575" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="O575" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P575" t="n">
-        <v>155714</v>
+        <v>190000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="T575" t="n">
         <v>400</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="N576" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="O576" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P576" t="n">
-        <v>7571</v>
+        <v>9833</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>473</v>
+        <v>615</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46515,41 +46515,41 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="N577" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O577" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T577" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="578">
@@ -46595,41 +46595,41 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="N578" t="n">
-        <v>16000</v>
+        <v>150000</v>
       </c>
       <c r="O578" t="n">
-        <v>16000</v>
+        <v>160000</v>
       </c>
       <c r="P578" t="n">
-        <v>16000</v>
+        <v>155714</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T578" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="579">
@@ -46675,41 +46675,41 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="N579" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="O579" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="P579" t="n">
-        <v>250000</v>
+        <v>7571</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>625</v>
+        <v>473</v>
       </c>
       <c r="T579" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="580">
@@ -46760,24 +46760,24 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="P580" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
@@ -46786,10 +46786,10 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T580" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="581">
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N581" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O581" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P581" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,29 +46915,29 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N582" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="O582" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="P582" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
@@ -46946,10 +46946,10 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>722</v>
+        <v>625</v>
       </c>
       <c r="T582" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="583">
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,20 +47004,20 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N583" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
@@ -47026,10 +47026,10 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>611</v>
+        <v>750</v>
       </c>
       <c r="T583" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="584">
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,20 +47084,20 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N584" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O584" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P584" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R584" t="inlineStr">
@@ -47106,10 +47106,10 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>444</v>
+        <v>625</v>
       </c>
       <c r="T584" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="585">
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47164,20 +47164,20 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="N585" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O585" t="n">
         <v>13000</v>
       </c>
       <c r="P585" t="n">
-        <v>12538</v>
+        <v>13000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R585" t="inlineStr">
@@ -47186,10 +47186,10 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>784</v>
+        <v>722</v>
       </c>
       <c r="T585" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="586">
@@ -47235,29 +47235,29 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N586" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O586" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P586" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
@@ -47266,10 +47266,10 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>875</v>
+        <v>611</v>
       </c>
       <c r="T586" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="587">
@@ -47315,29 +47315,29 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="N587" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O587" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P587" t="n">
-        <v>10581</v>
+        <v>8000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R587" t="inlineStr">
@@ -47346,10 +47346,10 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>661</v>
+        <v>444</v>
       </c>
       <c r="T587" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="588">
@@ -47400,24 +47400,24 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="N588" t="n">
         <v>12000</v>
       </c>
       <c r="O588" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P588" t="n">
-        <v>12000</v>
+        <v>12538</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R588" t="inlineStr">
@@ -47426,10 +47426,10 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>600</v>
+        <v>784</v>
       </c>
       <c r="T588" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="589">
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="N589" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O589" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P589" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47560,24 +47560,24 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="N590" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O590" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P590" t="n">
-        <v>8000</v>
+        <v>10581</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
@@ -47586,10 +47586,10 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>400</v>
+        <v>661</v>
       </c>
       <c r="T590" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="591">
@@ -47640,24 +47640,24 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
         <v>100</v>
       </c>
       <c r="N591" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O591" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P591" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 20 kilos empedrada</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
@@ -47666,10 +47666,10 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>438</v>
+        <v>600</v>
       </c>
       <c r="T591" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="592">
@@ -47715,29 +47715,29 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="N592" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="O592" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P592" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
@@ -47749,7 +47749,7 @@
         <v>500</v>
       </c>
       <c r="T592" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="593">
@@ -47795,29 +47795,29 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="N593" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O593" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P593" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 20 kilos empedrada</t>
         </is>
       </c>
       <c r="R593" t="inlineStr">
@@ -47826,10 +47826,10 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>875</v>
+        <v>400</v>
       </c>
       <c r="T593" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="594">
@@ -47875,29 +47875,29 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N594" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="O594" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="P594" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
@@ -47906,10 +47906,10 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="T594" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="595">
@@ -47960,24 +47960,24 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="N595" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O595" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P595" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
@@ -47986,10 +47986,10 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T595" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="596">
@@ -48040,24 +48040,24 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="N596" t="n">
-        <v>130000</v>
+        <v>14000</v>
       </c>
       <c r="O596" t="n">
-        <v>130000</v>
+        <v>14000</v>
       </c>
       <c r="P596" t="n">
-        <v>130000</v>
+        <v>14000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R596" t="inlineStr">
@@ -48066,10 +48066,10 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>325</v>
+        <v>875</v>
       </c>
       <c r="T596" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="597">
@@ -48120,24 +48120,24 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="N597" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="O597" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="P597" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R597" t="inlineStr">
@@ -48146,10 +48146,10 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>562</v>
+        <v>400</v>
       </c>
       <c r="T597" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="598">
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,29 +48195,29 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="N598" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O598" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P598" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R598" t="inlineStr">
@@ -48226,10 +48226,10 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T598" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="599">
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N599" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O599" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P599" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="T599" t="n">
         <v>400</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="N600" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O600" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P600" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48382,11 +48382,11 @@
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S600" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T600" t="n">
         <v>16</v>
@@ -48440,36 +48440,36 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N601" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="O601" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="P601" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>778</v>
+        <v>625</v>
       </c>
       <c r="T601" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="602">
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N602" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O602" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P602" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="T602" t="n">
         <v>400</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
         <v>200</v>
       </c>
       <c r="N603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T603" t="n">
         <v>16</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N604" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O604" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P604" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T604" t="n">
         <v>18</v>
@@ -48755,41 +48755,41 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="N605" t="n">
-        <v>14000</v>
+        <v>170000</v>
       </c>
       <c r="O605" t="n">
-        <v>14000</v>
+        <v>170000</v>
       </c>
       <c r="P605" t="n">
-        <v>14000</v>
+        <v>170000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>778</v>
+        <v>425</v>
       </c>
       <c r="T605" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="606">
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,20 +48844,20 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N606" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O606" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P606" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R606" t="inlineStr">
@@ -48866,10 +48866,10 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T606" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="607">
@@ -48915,29 +48915,29 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N607" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="O607" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="P607" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
@@ -48946,10 +48946,10 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>425</v>
+        <v>611</v>
       </c>
       <c r="T607" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="608">
@@ -48995,29 +48995,29 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="N608" t="n">
-        <v>140000</v>
+        <v>14000</v>
       </c>
       <c r="O608" t="n">
-        <v>140000</v>
+        <v>14000</v>
       </c>
       <c r="P608" t="n">
-        <v>140000</v>
+        <v>14000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R608" t="inlineStr">
@@ -49026,10 +49026,10 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>350</v>
+        <v>778</v>
       </c>
       <c r="T608" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="609">
@@ -49075,29 +49075,29 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="N609" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="O609" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="P609" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
@@ -49106,10 +49106,10 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>225</v>
+        <v>556</v>
       </c>
       <c r="T609" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="610">
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,41 +49155,41 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N610" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="O610" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="P610" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>750</v>
+        <v>425</v>
       </c>
       <c r="T610" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="611">
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,41 +49235,41 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N611" t="n">
-        <v>14000</v>
+        <v>140000</v>
       </c>
       <c r="O611" t="n">
-        <v>14000</v>
+        <v>140000</v>
       </c>
       <c r="P611" t="n">
-        <v>14000</v>
+        <v>140000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>778</v>
+        <v>350</v>
       </c>
       <c r="T611" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,41 +49315,41 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="N612" t="n">
-        <v>14000</v>
+        <v>90000</v>
       </c>
       <c r="O612" t="n">
-        <v>14000</v>
+        <v>90000</v>
       </c>
       <c r="P612" t="n">
-        <v>14000</v>
+        <v>90000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>875</v>
+        <v>225</v>
       </c>
       <c r="T612" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="613">
@@ -49400,24 +49400,24 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N613" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="O613" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="P613" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R613" t="inlineStr">
@@ -49426,10 +49426,10 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T613" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="614">
@@ -49480,24 +49480,24 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N614" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O614" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P614" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R614" t="inlineStr">
@@ -49506,10 +49506,10 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>625</v>
+        <v>778</v>
       </c>
       <c r="T614" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="615">
@@ -49560,24 +49560,24 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="N615" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O615" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P615" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R615" t="inlineStr">
@@ -49586,10 +49586,10 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>667</v>
+        <v>875</v>
       </c>
       <c r="T615" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="616">
@@ -49640,24 +49640,24 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N616" t="n">
-        <v>8000</v>
+        <v>350000</v>
       </c>
       <c r="O616" t="n">
-        <v>8000</v>
+        <v>350000</v>
       </c>
       <c r="P616" t="n">
-        <v>8000</v>
+        <v>350000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R616" t="inlineStr">
@@ -49666,10 +49666,10 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T616" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="617">
@@ -49720,11 +49720,11 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="N617" t="n">
         <v>10000</v>
@@ -49737,7 +49737,7 @@
       </c>
       <c r="Q617" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R617" t="inlineStr">
@@ -49746,10 +49746,10 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="T617" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="618">
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,20 +49804,20 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="N618" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O618" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P618" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
@@ -49826,10 +49826,10 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>575</v>
+        <v>667</v>
       </c>
       <c r="T618" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="619">
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,7 +49875,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -49884,20 +49884,20 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N619" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O619" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P619" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R619" t="inlineStr">
@@ -49906,10 +49906,10 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="T619" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="620">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,29 +49955,29 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="N620" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O620" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="P620" t="n">
-        <v>291429</v>
+        <v>10000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
@@ -49986,10 +49986,10 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>729</v>
+        <v>556</v>
       </c>
       <c r="T620" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="621">
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N621" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O621" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P621" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>800</v>
+        <v>575</v>
       </c>
       <c r="T621" t="n">
         <v>400</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N622" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="O622" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="P622" t="n">
-        <v>244167</v>
+        <v>180000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>610</v>
+        <v>450</v>
       </c>
       <c r="T622" t="n">
         <v>400</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N623" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="O623" t="n">
-        <v>180000</v>
+        <v>300000</v>
       </c>
       <c r="P623" t="n">
-        <v>180000</v>
+        <v>291429</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>450</v>
+        <v>729</v>
       </c>
       <c r="T623" t="n">
         <v>400</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N624" t="n">
-        <v>170000</v>
+        <v>320000</v>
       </c>
       <c r="O624" t="n">
-        <v>170000</v>
+        <v>320000</v>
       </c>
       <c r="P624" t="n">
-        <v>170000</v>
+        <v>320000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50302,11 +50302,11 @@
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>425</v>
+        <v>800</v>
       </c>
       <c r="T624" t="n">
         <v>400</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N625" t="n">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="O625" t="n">
-        <v>140000</v>
+        <v>250000</v>
       </c>
       <c r="P625" t="n">
-        <v>140000</v>
+        <v>244167</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50382,11 +50382,11 @@
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>350</v>
+        <v>610</v>
       </c>
       <c r="T625" t="n">
         <v>400</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,29 +50435,29 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N626" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O626" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="P626" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
@@ -50466,10 +50466,10 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>875</v>
+        <v>450</v>
       </c>
       <c r="T626" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="627">
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,7 +50515,7 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N627" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="O627" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="P627" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>575</v>
+        <v>425</v>
       </c>
       <c r="T627" t="n">
         <v>400</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,41 +50595,41 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N628" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="O628" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="P628" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="T628" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="629">
@@ -50680,36 +50680,36 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="N629" t="n">
-        <v>160000</v>
+        <v>14000</v>
       </c>
       <c r="O629" t="n">
-        <v>160000</v>
+        <v>14000</v>
       </c>
       <c r="P629" t="n">
-        <v>160000</v>
+        <v>14000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>400</v>
+        <v>875</v>
       </c>
       <c r="T629" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="630">
@@ -50760,36 +50760,36 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N630" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O630" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P630" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T630" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="631">
@@ -50835,29 +50835,29 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="N631" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O631" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P631" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
@@ -50866,10 +50866,10 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="T631" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="632">
@@ -50915,29 +50915,29 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="N632" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="O632" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="P632" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
@@ -50946,10 +50946,10 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T632" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="633">
@@ -50995,41 +50995,41 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M633" t="n">
+        <v>160</v>
+      </c>
+      <c r="N633" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O633" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P633" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q633" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R633" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S633" t="n">
+        <v>625</v>
+      </c>
+      <c r="T633" t="n">
         <v>16</v>
-      </c>
-      <c r="N633" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O633" t="n">
-        <v>240000</v>
-      </c>
-      <c r="P633" t="n">
-        <v>240000</v>
-      </c>
-      <c r="Q633" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R633" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S633" t="n">
-        <v>600</v>
-      </c>
-      <c r="T633" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="634">
@@ -51080,36 +51080,36 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="N634" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="O634" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P634" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T634" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="635">
@@ -51160,36 +51160,36 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N635" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="O635" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P635" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T635" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="636">
@@ -51240,36 +51240,36 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="N636" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O636" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P636" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T636" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="637">
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51324,20 +51324,20 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N637" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O637" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P637" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
@@ -51346,10 +51346,10 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="T637" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="638">
@@ -51395,7 +51395,7 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
@@ -51407,13 +51407,13 @@
         <v>12</v>
       </c>
       <c r="N638" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O638" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P638" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51422,11 +51422,11 @@
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T638" t="n">
         <v>400</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N639" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O639" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P639" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T639" t="n">
         <v>16</v>
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51564,20 +51564,20 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="N640" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O640" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P640" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
@@ -51586,10 +51586,10 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="T640" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,25 +51635,25 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N641" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="O641" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="P641" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51662,11 +51662,11 @@
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T641" t="n">
         <v>400</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,41 +51715,41 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="N642" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O642" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="P642" t="n">
-        <v>275000</v>
+        <v>12000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T642" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="643">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,41 +51795,41 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="N643" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O643" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P643" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>889</v>
+        <v>625</v>
       </c>
       <c r="T643" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="644">
@@ -51875,29 +51875,29 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="N644" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="O644" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="P644" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
@@ -51906,10 +51906,10 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T644" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="645">
@@ -51955,29 +51955,29 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="N645" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="O645" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="P645" t="n">
-        <v>8000</v>
+        <v>275000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R645" t="inlineStr">
@@ -51986,10 +51986,10 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>444</v>
+        <v>688</v>
       </c>
       <c r="T645" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="646">
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,29 +52035,29 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="N646" t="n">
-        <v>180000</v>
+        <v>16000</v>
       </c>
       <c r="O646" t="n">
-        <v>180000</v>
+        <v>16000</v>
       </c>
       <c r="P646" t="n">
-        <v>180000</v>
+        <v>16000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
@@ -52066,10 +52066,10 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>450</v>
+        <v>889</v>
       </c>
       <c r="T646" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="647">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,32 +52124,32 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N647" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O647" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P647" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>438</v>
+        <v>667</v>
       </c>
       <c r="T647" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="648">
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,20 +52204,20 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N648" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="O648" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P648" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
@@ -52226,10 +52226,10 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="T648" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="649">
@@ -52280,36 +52280,36 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N649" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="O649" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="P649" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T649" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="650">
@@ -52360,36 +52360,36 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N650" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="O650" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="P650" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>250</v>
+        <v>438</v>
       </c>
       <c r="T650" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="651">
@@ -52440,36 +52440,36 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="N651" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O651" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="P651" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="T651" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="652">
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N652" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O652" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P652" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>812</v>
+        <v>375</v>
       </c>
       <c r="T652" t="n">
         <v>16</v>
@@ -52595,41 +52595,41 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="N653" t="n">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="O653" t="n">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="P653" t="n">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>688</v>
+        <v>250</v>
       </c>
       <c r="T653" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="654">
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N654" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O654" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P654" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>562</v>
+        <v>312</v>
       </c>
       <c r="T654" t="n">
         <v>16</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N655" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O655" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P655" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T655" t="n">
         <v>16</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,20 +52844,20 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="N656" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="O656" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="P656" t="n">
-        <v>174615</v>
+        <v>11000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
@@ -52866,10 +52866,10 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>437</v>
+        <v>688</v>
       </c>
       <c r="T656" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="N657" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O657" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P657" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T657" t="n">
         <v>16</v>
@@ -53000,24 +53000,24 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="N658" t="n">
-        <v>140000</v>
+        <v>12000</v>
       </c>
       <c r="O658" t="n">
-        <v>140000</v>
+        <v>12000</v>
       </c>
       <c r="P658" t="n">
-        <v>140000</v>
+        <v>12000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
@@ -53026,10 +53026,10 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="T658" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="659">
@@ -53080,24 +53080,24 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N659" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="O659" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P659" t="n">
-        <v>8000</v>
+        <v>174615</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
@@ -53106,10 +53106,10 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="T659" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="660">
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="N660" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O660" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P660" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53182,11 +53182,11 @@
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T660" t="n">
         <v>16</v>
@@ -53235,41 +53235,41 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N661" t="n">
-        <v>13000</v>
+        <v>140000</v>
       </c>
       <c r="O661" t="n">
-        <v>13000</v>
+        <v>140000</v>
       </c>
       <c r="P661" t="n">
-        <v>13000</v>
+        <v>140000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>812</v>
+        <v>350</v>
       </c>
       <c r="T661" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="662">
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N662" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O662" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P662" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T662" t="n">
         <v>16</v>
@@ -53395,16 +53395,16 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N663" t="n">
         <v>15000</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="N664" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O664" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P664" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T664" t="n">
         <v>16</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N665" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O665" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P665" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T665" t="n">
         <v>16</v>
@@ -53635,29 +53635,29 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N666" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="O666" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="P666" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
@@ -53666,10 +53666,10 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>700</v>
+        <v>938</v>
       </c>
       <c r="T666" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="667">
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53724,20 +53724,20 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="N667" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O667" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P667" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
@@ -53746,10 +53746,10 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T667" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="668">
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,20 +53804,20 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="N668" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O668" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P668" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
@@ -53826,10 +53826,10 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T668" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="669">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,7 +53875,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,25 +54035,25 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N671" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O671" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P671" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>825</v>
+        <v>500</v>
       </c>
       <c r="T671" t="n">
         <v>400</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,7 +54115,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -54124,32 +54124,32 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="N672" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="O672" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="P672" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>875</v>
+        <v>700</v>
       </c>
       <c r="T672" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N673" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O673" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P673" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="T673" t="n">
         <v>400</v>
@@ -54280,36 +54280,36 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N674" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="O674" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="P674" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T674" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="675">
@@ -54360,36 +54360,36 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="N675" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="O675" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="P675" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="T675" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="676">
@@ -54440,36 +54440,36 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="N676" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="O676" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="P676" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="T676" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="677">
@@ -54515,41 +54515,41 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="N677" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="O677" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="P677" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T677" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="678">
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N678" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O678" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P678" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54622,11 +54622,11 @@
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="T678" t="n">
         <v>400</v>
@@ -54675,41 +54675,41 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="N679" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O679" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P679" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="T679" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="680">
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N680" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="O680" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="P680" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54782,11 +54782,11 @@
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="T680" t="n">
         <v>400</v>
@@ -54835,41 +54835,41 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="N681" t="n">
-        <v>15000</v>
+        <v>170000</v>
       </c>
       <c r="O681" t="n">
-        <v>15000</v>
+        <v>170000</v>
       </c>
       <c r="P681" t="n">
-        <v>15000</v>
+        <v>170000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>833</v>
+        <v>425</v>
       </c>
       <c r="T681" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="682">
@@ -54915,29 +54915,29 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N682" t="n">
-        <v>17000</v>
+        <v>180000</v>
       </c>
       <c r="O682" t="n">
-        <v>17000</v>
+        <v>180000</v>
       </c>
       <c r="P682" t="n">
-        <v>17000</v>
+        <v>180000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
@@ -54946,10 +54946,10 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>944</v>
+        <v>450</v>
       </c>
       <c r="T682" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="683">
@@ -54995,41 +54995,41 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N683" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="O683" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="P683" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>722</v>
+        <v>375</v>
       </c>
       <c r="T683" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="684">
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N684" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O684" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P684" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="T684" t="n">
         <v>18</v>
@@ -55155,41 +55155,41 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>White Lady</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="N685" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="O685" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="P685" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>550</v>
+        <v>944</v>
       </c>
       <c r="T685" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="686">
@@ -55235,41 +55235,41 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>White Lady</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N686" t="n">
-        <v>180000</v>
+        <v>13000</v>
       </c>
       <c r="O686" t="n">
-        <v>180000</v>
+        <v>13000</v>
       </c>
       <c r="P686" t="n">
-        <v>180000</v>
+        <v>13000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>450</v>
+        <v>722</v>
       </c>
       <c r="T686" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="687">
@@ -55315,40 +55315,280 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M687" t="n">
+        <v>80</v>
+      </c>
+      <c r="N687" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O687" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P687" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q687" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R687" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S687" t="n">
+        <v>611</v>
+      </c>
+      <c r="T687" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>6</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D688" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E688" t="n">
+        <v>13</v>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G688" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I688" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
           <t>White Lady</t>
         </is>
       </c>
-      <c r="L687" t="inlineStr">
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M688" t="n">
+        <v>12</v>
+      </c>
+      <c r="N688" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O688" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P688" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q688" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R688" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S688" t="n">
+        <v>550</v>
+      </c>
+      <c r="T688" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>6</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D689" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E689" t="n">
+        <v>13</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G689" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I689" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>White Lady</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M689" t="n">
+        <v>8</v>
+      </c>
+      <c r="N689" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O689" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P689" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q689" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R689" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S689" t="n">
+        <v>450</v>
+      </c>
+      <c r="T689" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>6</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D690" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E690" t="n">
+        <v>13</v>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G690" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I690" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>White Lady</t>
+        </is>
+      </c>
+      <c r="L690" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M687" t="n">
-        <v>6</v>
-      </c>
-      <c r="N687" t="n">
+      <c r="M690" t="n">
+        <v>6</v>
+      </c>
+      <c r="N690" t="n">
         <v>120000</v>
       </c>
-      <c r="O687" t="n">
+      <c r="O690" t="n">
         <v>120000</v>
       </c>
-      <c r="P687" t="n">
+      <c r="P690" t="n">
         <v>120000</v>
       </c>
-      <c r="Q687" t="inlineStr">
+      <c r="Q690" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R687" t="inlineStr">
+      <c r="R690" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S687" t="n">
+      <c r="S690" t="n">
         <v>300</v>
       </c>
-      <c r="T687" t="n">
+      <c r="T690" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T734"/>
+  <dimension ref="A1:T740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,7 +49635,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N616" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="O616" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="P616" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T616" t="n">
         <v>400</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,7 +49715,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N617" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O617" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="P617" t="n">
-        <v>250000</v>
+        <v>359091</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>625</v>
+        <v>898</v>
       </c>
       <c r="T617" t="n">
         <v>400</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,29 +49795,29 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N618" t="n">
-        <v>18000</v>
+        <v>330000</v>
       </c>
       <c r="O618" t="n">
-        <v>18000</v>
+        <v>330000</v>
       </c>
       <c r="P618" t="n">
-        <v>18000</v>
+        <v>330000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
@@ -49826,10 +49826,10 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="T618" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="619">
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,41 +49875,41 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="N619" t="n">
-        <v>16000</v>
+        <v>380000</v>
       </c>
       <c r="O619" t="n">
-        <v>16000</v>
+        <v>380000</v>
       </c>
       <c r="P619" t="n">
-        <v>16000</v>
+        <v>380000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>889</v>
+        <v>950</v>
       </c>
       <c r="T619" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="620">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N620" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="O620" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="P620" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49982,11 +49982,11 @@
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T620" t="n">
         <v>400</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N621" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O621" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P621" t="n">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50062,11 +50062,11 @@
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>638</v>
+        <v>800</v>
       </c>
       <c r="T621" t="n">
         <v>400</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N622" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O622" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P622" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="T622" t="n">
         <v>400</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,7 +50195,7 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N623" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O623" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P623" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="T623" t="n">
         <v>400</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,41 +50275,41 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N624" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="O624" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="P624" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T624" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="625">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,41 +50355,41 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="N625" t="n">
-        <v>350000</v>
+        <v>16000</v>
       </c>
       <c r="O625" t="n">
-        <v>350000</v>
+        <v>16000</v>
       </c>
       <c r="P625" t="n">
-        <v>350000</v>
+        <v>16000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="T625" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="626">
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N626" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="O626" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="P626" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50462,11 +50462,11 @@
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T626" t="n">
         <v>400</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,7 +50515,7 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N627" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="O627" t="n">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="P627" t="n">
-        <v>310000</v>
+        <v>255000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50542,11 +50542,11 @@
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>775</v>
+        <v>638</v>
       </c>
       <c r="T627" t="n">
         <v>400</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N628" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="O628" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="P628" t="n">
-        <v>440000</v>
+        <v>270000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50622,11 +50622,11 @@
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>1100</v>
+        <v>675</v>
       </c>
       <c r="T628" t="n">
         <v>400</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N629" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="O629" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="P629" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50702,11 +50702,11 @@
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="T629" t="n">
         <v>400</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N630" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="O630" t="n">
-        <v>440000</v>
+        <v>200000</v>
       </c>
       <c r="P630" t="n">
-        <v>435000</v>
+        <v>200000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50782,11 +50782,11 @@
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>1088</v>
+        <v>500</v>
       </c>
       <c r="T630" t="n">
         <v>400</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,25 +50835,25 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N631" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="O631" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="P631" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50862,11 +50862,11 @@
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="T631" t="n">
         <v>400</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N632" t="n">
-        <v>230000</v>
+        <v>380000</v>
       </c>
       <c r="O632" t="n">
-        <v>230000</v>
+        <v>380000</v>
       </c>
       <c r="P632" t="n">
-        <v>230000</v>
+        <v>380000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50942,11 +50942,11 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="T632" t="n">
         <v>400</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N633" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="O633" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="P633" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51022,11 +51022,11 @@
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>450</v>
+        <v>775</v>
       </c>
       <c r="T633" t="n">
         <v>400</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N634" t="n">
-        <v>280000</v>
+        <v>430000</v>
       </c>
       <c r="O634" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="P634" t="n">
-        <v>291429</v>
+        <v>440000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51102,11 +51102,11 @@
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>729</v>
+        <v>1100</v>
       </c>
       <c r="T634" t="n">
         <v>400</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N635" t="n">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="O635" t="n">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="P635" t="n">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51182,11 +51182,11 @@
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T635" t="n">
         <v>400</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N636" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="O636" t="n">
-        <v>250000</v>
+        <v>440000</v>
       </c>
       <c r="P636" t="n">
-        <v>244167</v>
+        <v>435000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51262,11 +51262,11 @@
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>610</v>
+        <v>1088</v>
       </c>
       <c r="T636" t="n">
         <v>400</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N637" t="n">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="O637" t="n">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="P637" t="n">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51342,11 +51342,11 @@
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="T637" t="n">
         <v>400</v>
@@ -51395,7 +51395,7 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N638" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="O638" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="P638" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51422,11 +51422,11 @@
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="T638" t="n">
         <v>400</v>
@@ -51475,7 +51475,7 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N639" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O639" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P639" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51502,11 +51502,11 @@
       </c>
       <c r="R639" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S639" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="T639" t="n">
         <v>400</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N640" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O640" t="n">
         <v>300000</v>
       </c>
       <c r="P640" t="n">
-        <v>300000</v>
+        <v>291429</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="T640" t="n">
         <v>400</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,24 +51640,24 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="N641" t="n">
-        <v>14000</v>
+        <v>320000</v>
       </c>
       <c r="O641" t="n">
-        <v>14000</v>
+        <v>320000</v>
       </c>
       <c r="P641" t="n">
-        <v>14000</v>
+        <v>320000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
@@ -51666,10 +51666,10 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T641" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,24 +51720,24 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="N642" t="n">
-        <v>16000</v>
+        <v>240000</v>
       </c>
       <c r="O642" t="n">
-        <v>16000</v>
+        <v>250000</v>
       </c>
       <c r="P642" t="n">
-        <v>16000</v>
+        <v>244167</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
@@ -51746,10 +51746,10 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>889</v>
+        <v>610</v>
       </c>
       <c r="T642" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="643">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N643" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="O643" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="P643" t="n">
-        <v>255000</v>
+        <v>180000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>638</v>
+        <v>450</v>
       </c>
       <c r="T643" t="n">
         <v>400</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,7 +51875,7 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
@@ -51884,32 +51884,32 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="N644" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="O644" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="P644" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>667</v>
+        <v>425</v>
       </c>
       <c r="T644" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N645" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="O645" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="P645" t="n">
-        <v>260000</v>
+        <v>140000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51982,11 +51982,11 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="T645" t="n">
         <v>400</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N646" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="O646" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="P646" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52062,11 +52062,11 @@
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="T646" t="n">
         <v>400</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,29 +52115,29 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N647" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="O647" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="P647" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
@@ -52146,10 +52146,10 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>425</v>
+        <v>778</v>
       </c>
       <c r="T647" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="648">
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,41 +52195,41 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N648" t="n">
-        <v>120000</v>
+        <v>16000</v>
       </c>
       <c r="O648" t="n">
-        <v>120000</v>
+        <v>16000</v>
       </c>
       <c r="P648" t="n">
-        <v>120000</v>
+        <v>16000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>300</v>
+        <v>889</v>
       </c>
       <c r="T648" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="649">
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N649" t="n">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="O649" t="n">
-        <v>140000</v>
+        <v>270000</v>
       </c>
       <c r="P649" t="n">
-        <v>140000</v>
+        <v>255000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>350</v>
+        <v>638</v>
       </c>
       <c r="T649" t="n">
         <v>400</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,41 +52355,41 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="N650" t="n">
-        <v>70000</v>
+        <v>12000</v>
       </c>
       <c r="O650" t="n">
-        <v>70000</v>
+        <v>12000</v>
       </c>
       <c r="P650" t="n">
-        <v>70000</v>
+        <v>12000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>175</v>
+        <v>667</v>
       </c>
       <c r="T650" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N651" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="O651" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P651" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52462,11 +52462,11 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="T651" t="n">
         <v>400</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N652" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O652" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P652" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="T652" t="n">
         <v>400</v>
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52604,32 +52604,32 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N653" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="O653" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="P653" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="T653" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="654">
@@ -52675,7 +52675,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N654" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="O654" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="P654" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="T654" t="n">
         <v>400</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52835,29 +52835,29 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="N656" t="n">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="O656" t="n">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="P656" t="n">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
@@ -52866,10 +52866,10 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>438</v>
+        <v>175</v>
       </c>
       <c r="T656" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="657">
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N657" t="n">
-        <v>70000</v>
+        <v>180000</v>
       </c>
       <c r="O657" t="n">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="P657" t="n">
-        <v>70000</v>
+        <v>190000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>175</v>
+        <v>475</v>
       </c>
       <c r="T657" t="n">
         <v>400</v>
@@ -53000,36 +53000,36 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N658" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O658" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="P658" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="T658" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,25 +53075,25 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M659" t="n">
         <v>70</v>
       </c>
       <c r="N659" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O659" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P659" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T659" t="n">
         <v>16</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,29 +53155,29 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="N660" t="n">
-        <v>14000</v>
+        <v>110000</v>
       </c>
       <c r="O660" t="n">
-        <v>14000</v>
+        <v>110000</v>
       </c>
       <c r="P660" t="n">
-        <v>14000</v>
+        <v>110000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
@@ -53186,10 +53186,10 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>875</v>
+        <v>275</v>
       </c>
       <c r="T660" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,7 +53235,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -53244,32 +53244,32 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="N661" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="O661" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="P661" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="T661" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,41 +53315,41 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M662" t="n">
+        <v>90</v>
+      </c>
+      <c r="N662" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O662" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P662" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q662" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R662" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S662" t="n">
+        <v>438</v>
+      </c>
+      <c r="T662" t="n">
         <v>16</v>
-      </c>
-      <c r="N662" t="n">
-        <v>230000</v>
-      </c>
-      <c r="O662" t="n">
-        <v>230000</v>
-      </c>
-      <c r="P662" t="n">
-        <v>230000</v>
-      </c>
-      <c r="Q662" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R662" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S662" t="n">
-        <v>575</v>
-      </c>
-      <c r="T662" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N663" t="n">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="O663" t="n">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="P663" t="n">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53422,11 +53422,11 @@
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="T663" t="n">
         <v>400</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,41 +53475,41 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M664" t="n">
+        <v>55</v>
+      </c>
+      <c r="N664" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O664" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P664" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q664" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R664" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S664" t="n">
+        <v>312</v>
+      </c>
+      <c r="T664" t="n">
         <v>16</v>
-      </c>
-      <c r="N664" t="n">
-        <v>280000</v>
-      </c>
-      <c r="O664" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P664" t="n">
-        <v>280000</v>
-      </c>
-      <c r="Q664" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R664" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S664" t="n">
-        <v>700</v>
-      </c>
-      <c r="T664" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="665">
@@ -53555,41 +53555,41 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="N665" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="O665" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="P665" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T665" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="666">
@@ -53635,41 +53635,41 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N666" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="O666" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="P666" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T666" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="667">
@@ -53715,41 +53715,41 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="N667" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="O667" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="P667" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T667" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="668">
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N668" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O668" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="P668" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>1000</v>
+        <v>575</v>
       </c>
       <c r="T668" t="n">
         <v>400</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N669" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O669" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P669" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T669" t="n">
         <v>400</v>
@@ -53955,29 +53955,29 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="N670" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="O670" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="P670" t="n">
-        <v>13500</v>
+        <v>280000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
@@ -53986,10 +53986,10 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T670" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="671">
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>White Lady</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N671" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O671" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P671" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="T671" t="n">
         <v>400</v>
@@ -54115,7 +54115,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>White Lady</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -54124,16 +54124,16 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N672" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O672" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P672" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="T672" t="n">
         <v>400</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N673" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
       <c r="O673" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
       <c r="P673" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>525</v>
+        <v>875</v>
       </c>
       <c r="T673" t="n">
         <v>400</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N674" t="n">
-        <v>170000</v>
+        <v>400000</v>
       </c>
       <c r="O674" t="n">
-        <v>180000</v>
+        <v>400000</v>
       </c>
       <c r="P674" t="n">
-        <v>175000</v>
+        <v>400000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>438</v>
+        <v>1000</v>
       </c>
       <c r="T674" t="n">
         <v>400</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N675" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="O675" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P675" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T675" t="n">
         <v>400</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54444,20 +54444,20 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="N676" t="n">
-        <v>280000</v>
+        <v>13000</v>
       </c>
       <c r="O676" t="n">
-        <v>300000</v>
+        <v>14000</v>
       </c>
       <c r="P676" t="n">
-        <v>290000</v>
+        <v>13500</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
@@ -54466,10 +54466,10 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="T676" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,29 +54515,29 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>White Lady</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="N677" t="n">
-        <v>15000</v>
+        <v>280000</v>
       </c>
       <c r="O677" t="n">
-        <v>16000</v>
+        <v>280000</v>
       </c>
       <c r="P677" t="n">
-        <v>15455</v>
+        <v>280000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
@@ -54546,10 +54546,10 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>859</v>
+        <v>700</v>
       </c>
       <c r="T677" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,29 +54595,29 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>White Lady</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="N678" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O678" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="P678" t="n">
-        <v>12333</v>
+        <v>230000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
@@ -54626,10 +54626,10 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>685</v>
+        <v>575</v>
       </c>
       <c r="T678" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,29 +54675,29 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="N679" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="O679" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="P679" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
@@ -54706,10 +54706,10 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>444</v>
+        <v>525</v>
       </c>
       <c r="T679" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54755,41 +54755,41 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N680" t="n">
-        <v>14000</v>
+        <v>170000</v>
       </c>
       <c r="O680" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="P680" t="n">
-        <v>14444</v>
+        <v>175000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>903</v>
+        <v>438</v>
       </c>
       <c r="T680" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,41 +54835,41 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="N681" t="n">
-        <v>9000</v>
+        <v>350000</v>
       </c>
       <c r="O681" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="P681" t="n">
-        <v>9400</v>
+        <v>350000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>588</v>
+        <v>875</v>
       </c>
       <c r="T681" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,41 +54915,41 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="N682" t="n">
-        <v>7500</v>
+        <v>280000</v>
       </c>
       <c r="O682" t="n">
-        <v>8000</v>
+        <v>300000</v>
       </c>
       <c r="P682" t="n">
-        <v>7714</v>
+        <v>290000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>482</v>
+        <v>725</v>
       </c>
       <c r="T682" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="683">
@@ -54995,29 +54995,29 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="N683" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="O683" t="n">
-        <v>260000</v>
+        <v>16000</v>
       </c>
       <c r="P683" t="n">
-        <v>255000</v>
+        <v>15455</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
@@ -55026,10 +55026,10 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>638</v>
+        <v>859</v>
       </c>
       <c r="T683" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="684">
@@ -55075,29 +55075,29 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="N684" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="O684" t="n">
-        <v>210000</v>
+        <v>13000</v>
       </c>
       <c r="P684" t="n">
-        <v>210000</v>
+        <v>12333</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
@@ -55106,10 +55106,10 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>525</v>
+        <v>685</v>
       </c>
       <c r="T684" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="685">
@@ -55155,41 +55155,41 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N685" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="O685" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="P685" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="T685" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="686">
@@ -55235,41 +55235,41 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M686" t="n">
+        <v>54</v>
+      </c>
+      <c r="N686" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O686" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P686" t="n">
+        <v>14444</v>
+      </c>
+      <c r="Q686" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S686" t="n">
+        <v>903</v>
+      </c>
+      <c r="T686" t="n">
         <v>16</v>
-      </c>
-      <c r="N686" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O686" t="n">
-        <v>150000</v>
-      </c>
-      <c r="P686" t="n">
-        <v>150000</v>
-      </c>
-      <c r="Q686" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R686" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S686" t="n">
-        <v>375</v>
-      </c>
-      <c r="T686" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="687">
@@ -55315,29 +55315,29 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N687" t="n">
-        <v>120000</v>
+        <v>9000</v>
       </c>
       <c r="O687" t="n">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="P687" t="n">
-        <v>120000</v>
+        <v>9400</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R687" t="inlineStr">
@@ -55346,10 +55346,10 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="T687" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="688">
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,41 +55395,41 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="N688" t="n">
-        <v>240000</v>
+        <v>7500</v>
       </c>
       <c r="O688" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="P688" t="n">
-        <v>245000</v>
+        <v>7714</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>612</v>
+        <v>482</v>
       </c>
       <c r="T688" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N689" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O689" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P689" t="n">
-        <v>200000</v>
+        <v>255000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>500</v>
+        <v>638</v>
       </c>
       <c r="T689" t="n">
         <v>400</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,25 +55555,25 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N690" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O690" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P690" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="T690" t="n">
         <v>400</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,25 +55635,25 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N691" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="O691" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="P691" t="n">
-        <v>235000</v>
+        <v>170000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55662,11 +55662,11 @@
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>588</v>
+        <v>425</v>
       </c>
       <c r="T691" t="n">
         <v>400</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44195</v>
+        <v>44258</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,41 +55715,41 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="N692" t="n">
-        <v>11000</v>
+        <v>150000</v>
       </c>
       <c r="O692" t="n">
-        <v>11000</v>
+        <v>150000</v>
       </c>
       <c r="P692" t="n">
-        <v>11000</v>
+        <v>150000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>688</v>
+        <v>375</v>
       </c>
       <c r="T692" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44195</v>
+        <v>44258</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N693" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O693" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P693" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55822,11 +55822,11 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="T693" t="n">
         <v>400</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,7 +55875,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -55884,20 +55884,20 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="N694" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="O694" t="n">
-        <v>9000</v>
+        <v>250000</v>
       </c>
       <c r="P694" t="n">
-        <v>9000</v>
+        <v>245000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
@@ -55906,10 +55906,10 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="T694" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,7 +55955,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N695" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O695" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P695" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="T695" t="n">
         <v>400</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,29 +56035,29 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="N696" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="O696" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="P696" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
@@ -56066,10 +56066,10 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>438</v>
+        <v>675</v>
       </c>
       <c r="T696" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N697" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O697" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P697" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>500</v>
+        <v>588</v>
       </c>
       <c r="T697" t="n">
         <v>400</v>
@@ -56195,29 +56195,29 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="N698" t="n">
-        <v>240000</v>
+        <v>11000</v>
       </c>
       <c r="O698" t="n">
-        <v>240000</v>
+        <v>11000</v>
       </c>
       <c r="P698" t="n">
-        <v>240000</v>
+        <v>11000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
@@ -56226,10 +56226,10 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>600</v>
+        <v>688</v>
       </c>
       <c r="T698" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="699">
@@ -56275,25 +56275,25 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N699" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O699" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P699" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="T699" t="n">
         <v>400</v>
@@ -56355,29 +56355,29 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="N700" t="n">
-        <v>140000</v>
+        <v>9000</v>
       </c>
       <c r="O700" t="n">
-        <v>140000</v>
+        <v>9000</v>
       </c>
       <c r="P700" t="n">
-        <v>140000</v>
+        <v>9000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
@@ -56386,10 +56386,10 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>350</v>
+        <v>562</v>
       </c>
       <c r="T700" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="701">
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,25 +56435,25 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N701" t="n">
-        <v>400000</v>
+        <v>140000</v>
       </c>
       <c r="O701" t="n">
-        <v>420000</v>
+        <v>140000</v>
       </c>
       <c r="P701" t="n">
-        <v>413043</v>
+        <v>140000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>1033</v>
+        <v>350</v>
       </c>
       <c r="T701" t="n">
         <v>400</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56515,29 +56515,29 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N702" t="n">
-        <v>350000</v>
+        <v>7000</v>
       </c>
       <c r="O702" t="n">
-        <v>400000</v>
+        <v>7000</v>
       </c>
       <c r="P702" t="n">
-        <v>378235</v>
+        <v>7000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
@@ -56546,10 +56546,10 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>946</v>
+        <v>438</v>
       </c>
       <c r="T702" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56595,7 +56595,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
@@ -56604,16 +56604,16 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N703" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O703" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P703" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>825</v>
+        <v>500</v>
       </c>
       <c r="T703" t="n">
         <v>400</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N704" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O704" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="P704" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T704" t="n">
         <v>400</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56755,25 +56755,25 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N705" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="O705" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="P705" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>925</v>
+        <v>500</v>
       </c>
       <c r="T705" t="n">
         <v>400</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,25 +56835,25 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N706" t="n">
-        <v>330000</v>
+        <v>140000</v>
       </c>
       <c r="O706" t="n">
-        <v>330000</v>
+        <v>140000</v>
       </c>
       <c r="P706" t="n">
-        <v>330000</v>
+        <v>140000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>825</v>
+        <v>350</v>
       </c>
       <c r="T706" t="n">
         <v>400</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,7 +56915,7 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
@@ -56924,16 +56924,16 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N707" t="n">
-        <v>180000</v>
+        <v>400000</v>
       </c>
       <c r="O707" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="P707" t="n">
-        <v>180000</v>
+        <v>413043</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56942,11 +56942,11 @@
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>450</v>
+        <v>1033</v>
       </c>
       <c r="T707" t="n">
         <v>400</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -56995,7 +56995,7 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
@@ -57004,16 +57004,16 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N708" t="n">
-        <v>150000</v>
+        <v>350000</v>
       </c>
       <c r="O708" t="n">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c r="P708" t="n">
-        <v>150000</v>
+        <v>378235</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57022,11 +57022,11 @@
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>375</v>
+        <v>946</v>
       </c>
       <c r="T708" t="n">
         <v>400</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,7 +57075,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
@@ -57084,16 +57084,16 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N709" t="n">
-        <v>130000</v>
+        <v>330000</v>
       </c>
       <c r="O709" t="n">
-        <v>130000</v>
+        <v>330000</v>
       </c>
       <c r="P709" t="n">
-        <v>130000</v>
+        <v>330000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57102,11 +57102,11 @@
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="T709" t="n">
         <v>400</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,7 +57155,7 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
@@ -57164,32 +57164,32 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="N710" t="n">
-        <v>12000</v>
+        <v>400000</v>
       </c>
       <c r="O710" t="n">
-        <v>12000</v>
+        <v>400000</v>
       </c>
       <c r="P710" t="n">
-        <v>12000</v>
+        <v>400000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T710" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57235,7 +57235,7 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
@@ -57244,16 +57244,16 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N711" t="n">
-        <v>170000</v>
+        <v>370000</v>
       </c>
       <c r="O711" t="n">
-        <v>180000</v>
+        <v>370000</v>
       </c>
       <c r="P711" t="n">
-        <v>174615</v>
+        <v>370000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57262,11 +57262,11 @@
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>437</v>
+        <v>925</v>
       </c>
       <c r="T711" t="n">
         <v>400</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57315,41 +57315,41 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="N712" t="n">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="O712" t="n">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="P712" t="n">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="T712" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M713" t="n">
         <v>10</v>
       </c>
       <c r="N713" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O713" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P713" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="T713" t="n">
         <v>400</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,29 +57475,29 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="N714" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="O714" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="P714" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R714" t="inlineStr">
@@ -57506,10 +57506,10 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="T714" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="715">
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57555,41 +57555,41 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="N715" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="O715" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="P715" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>938</v>
+        <v>325</v>
       </c>
       <c r="T715" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="716">
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N716" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O716" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P716" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57662,11 +57662,11 @@
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T716" t="n">
         <v>16</v>
@@ -57715,41 +57715,41 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="N717" t="n">
-        <v>14000</v>
+        <v>170000</v>
       </c>
       <c r="O717" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="P717" t="n">
-        <v>14000</v>
+        <v>174615</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>875</v>
+        <v>437</v>
       </c>
       <c r="T717" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="718">
@@ -57795,25 +57795,25 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N718" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O718" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P718" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57822,11 +57822,11 @@
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T718" t="n">
         <v>16</v>
@@ -57875,41 +57875,41 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="N719" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="O719" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="P719" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="T719" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="720">
@@ -57955,7 +57955,7 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
@@ -57964,16 +57964,16 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N720" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O720" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P720" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57982,11 +57982,11 @@
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T720" t="n">
         <v>16</v>
@@ -58035,7 +58035,7 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
@@ -58044,20 +58044,20 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="N721" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="O721" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="P721" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
@@ -58066,10 +58066,10 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>700</v>
+        <v>938</v>
       </c>
       <c r="T721" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="722">
@@ -58115,7 +58115,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -58124,20 +58124,20 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N722" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="O722" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="P722" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
@@ -58146,10 +58146,10 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T722" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="723">
@@ -58195,29 +58195,29 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N723" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="O723" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="P723" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
@@ -58226,10 +58226,10 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T723" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,41 +58275,41 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N724" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O724" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P724" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T724" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,29 +58355,29 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="N725" t="n">
-        <v>360000</v>
+        <v>12000</v>
       </c>
       <c r="O725" t="n">
-        <v>370000</v>
+        <v>12000</v>
       </c>
       <c r="P725" t="n">
-        <v>366000</v>
+        <v>12000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
@@ -58386,10 +58386,10 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>915</v>
+        <v>750</v>
       </c>
       <c r="T725" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58435,29 +58435,29 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="N726" t="n">
-        <v>330000</v>
+        <v>10000</v>
       </c>
       <c r="O726" t="n">
-        <v>340000</v>
+        <v>10000</v>
       </c>
       <c r="P726" t="n">
-        <v>336923</v>
+        <v>10000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
@@ -58466,10 +58466,10 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>842</v>
+        <v>625</v>
       </c>
       <c r="T726" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,25 +58515,25 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N727" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O727" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P727" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T727" t="n">
         <v>400</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N728" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O728" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P728" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58622,11 +58622,11 @@
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="T728" t="n">
         <v>400</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,25 +58675,25 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N729" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O729" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P729" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58702,11 +58702,11 @@
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="T729" t="n">
         <v>400</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,41 +58755,41 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N730" t="n">
-        <v>200000</v>
+        <v>11000</v>
       </c>
       <c r="O730" t="n">
-        <v>200000</v>
+        <v>11000</v>
       </c>
       <c r="P730" t="n">
-        <v>200000</v>
+        <v>11000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>500</v>
+        <v>1375</v>
       </c>
       <c r="T730" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,25 +58835,25 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N731" t="n">
-        <v>230000</v>
+        <v>360000</v>
       </c>
       <c r="O731" t="n">
-        <v>230000</v>
+        <v>370000</v>
       </c>
       <c r="P731" t="n">
-        <v>230000</v>
+        <v>366000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>575</v>
+        <v>915</v>
       </c>
       <c r="T731" t="n">
         <v>400</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,25 +58915,25 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N732" t="n">
-        <v>190000</v>
+        <v>330000</v>
       </c>
       <c r="O732" t="n">
-        <v>190000</v>
+        <v>340000</v>
       </c>
       <c r="P732" t="n">
-        <v>190000</v>
+        <v>336923</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>475</v>
+        <v>842</v>
       </c>
       <c r="T732" t="n">
         <v>400</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -58995,29 +58995,29 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N733" t="n">
-        <v>18000</v>
+        <v>320000</v>
       </c>
       <c r="O733" t="n">
-        <v>18000</v>
+        <v>320000</v>
       </c>
       <c r="P733" t="n">
-        <v>18000</v>
+        <v>320000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
@@ -59026,10 +59026,10 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>1125</v>
+        <v>800</v>
       </c>
       <c r="T733" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="734">
@@ -59075,40 +59075,520 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M734" t="n">
+        <v>9</v>
+      </c>
+      <c r="N734" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O734" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P734" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q734" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R734" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S734" t="n">
+        <v>650</v>
+      </c>
+      <c r="T734" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>6</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D735" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E735" t="n">
+        <v>13</v>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G735" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I735" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M735" t="n">
+        <v>13</v>
+      </c>
+      <c r="N735" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O735" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P735" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q735" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R735" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S735" t="n">
+        <v>575</v>
+      </c>
+      <c r="T735" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>6</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D736" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E736" t="n">
+        <v>13</v>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G736" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I736" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J736" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M736" t="n">
+        <v>15</v>
+      </c>
+      <c r="N736" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O736" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P736" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Q736" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R736" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S736" t="n">
+        <v>500</v>
+      </c>
+      <c r="T736" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>6</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D737" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E737" t="n">
+        <v>13</v>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G737" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I737" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>Kakamas</t>
+        </is>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M737" t="n">
+        <v>13</v>
+      </c>
+      <c r="N737" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O737" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P737" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q737" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R737" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S737" t="n">
+        <v>575</v>
+      </c>
+      <c r="T737" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>6</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D738" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E738" t="n">
+        <v>13</v>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G738" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I738" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>Kakamas</t>
+        </is>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M738" t="n">
+        <v>8</v>
+      </c>
+      <c r="N738" t="n">
+        <v>190000</v>
+      </c>
+      <c r="O738" t="n">
+        <v>190000</v>
+      </c>
+      <c r="P738" t="n">
+        <v>190000</v>
+      </c>
+      <c r="Q738" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R738" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S738" t="n">
+        <v>475</v>
+      </c>
+      <c r="T738" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>6</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D739" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E739" t="n">
+        <v>13</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G739" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I739" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
           <t>Phillips Cling</t>
         </is>
       </c>
-      <c r="L734" t="inlineStr">
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M739" t="n">
+        <v>80</v>
+      </c>
+      <c r="N739" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O739" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P739" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q739" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R739" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S739" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T739" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>6</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D740" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E740" t="n">
+        <v>13</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G740" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I740" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L740" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M734" t="n">
+      <c r="M740" t="n">
         <v>120</v>
       </c>
-      <c r="N734" t="n">
+      <c r="N740" t="n">
         <v>16000</v>
       </c>
-      <c r="O734" t="n">
+      <c r="O740" t="n">
         <v>16000</v>
       </c>
-      <c r="P734" t="n">
+      <c r="P740" t="n">
         <v>16000</v>
       </c>
-      <c r="Q734" t="inlineStr">
+      <c r="Q740" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R734" t="inlineStr">
+      <c r="R740" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S734" t="n">
+      <c r="S740" t="n">
         <v>1000</v>
       </c>
-      <c r="T734" t="n">
+      <c r="T740" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T775"/>
+  <dimension ref="A1:T783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N651" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="O651" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="P651" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="T651" t="n">
         <v>400</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N652" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="O652" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="P652" t="n">
-        <v>359091</v>
+        <v>270000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>898</v>
+        <v>675</v>
       </c>
       <c r="T652" t="n">
         <v>400</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52604,32 +52604,32 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="N653" t="n">
-        <v>330000</v>
+        <v>10000</v>
       </c>
       <c r="O653" t="n">
-        <v>330000</v>
+        <v>10000</v>
       </c>
       <c r="P653" t="n">
-        <v>330000</v>
+        <v>10000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="T653" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N654" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="O654" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="P654" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52702,11 +52702,11 @@
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>950</v>
+        <v>625</v>
       </c>
       <c r="T654" t="n">
         <v>400</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N655" t="n">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="O655" t="n">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="P655" t="n">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52782,11 +52782,11 @@
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="T655" t="n">
         <v>400</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,41 +52835,41 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N656" t="n">
-        <v>320000</v>
+        <v>15000</v>
       </c>
       <c r="O656" t="n">
-        <v>320000</v>
+        <v>15000</v>
       </c>
       <c r="P656" t="n">
-        <v>320000</v>
+        <v>15000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="T656" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,29 +52915,29 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N657" t="n">
-        <v>280000</v>
+        <v>16000</v>
       </c>
       <c r="O657" t="n">
-        <v>280000</v>
+        <v>16000</v>
       </c>
       <c r="P657" t="n">
-        <v>280000</v>
+        <v>16000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
@@ -52946,10 +52946,10 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T657" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,20 +53004,20 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N658" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="O658" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="P658" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
@@ -53026,10 +53026,10 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T658" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,20 +53084,20 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N659" t="n">
-        <v>18000</v>
+        <v>400000</v>
       </c>
       <c r="O659" t="n">
-        <v>18000</v>
+        <v>400000</v>
       </c>
       <c r="P659" t="n">
-        <v>18000</v>
+        <v>400000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
@@ -53109,7 +53109,7 @@
         <v>1000</v>
       </c>
       <c r="T659" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,7 +53155,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
@@ -53164,20 +53164,20 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N660" t="n">
-        <v>16000</v>
+        <v>350000</v>
       </c>
       <c r="O660" t="n">
-        <v>16000</v>
+        <v>370000</v>
       </c>
       <c r="P660" t="n">
-        <v>16000</v>
+        <v>359091</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
@@ -53186,10 +53186,10 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="T660" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N661" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O661" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P661" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T661" t="n">
         <v>400</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M662" t="n">
         <v>18</v>
       </c>
       <c r="N662" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O662" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="P662" t="n">
-        <v>255000</v>
+        <v>380000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>638</v>
+        <v>950</v>
       </c>
       <c r="T662" t="n">
         <v>400</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N663" t="n">
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="O663" t="n">
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="P663" t="n">
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53422,11 +53422,11 @@
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="T663" t="n">
         <v>400</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N664" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O664" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P664" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T664" t="n">
         <v>400</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N665" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O665" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P665" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T665" t="n">
         <v>400</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N666" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="O666" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="P666" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T666" t="n">
         <v>400</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,41 +53715,41 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N667" t="n">
-        <v>380000</v>
+        <v>18000</v>
       </c>
       <c r="O667" t="n">
-        <v>380000</v>
+        <v>18000</v>
       </c>
       <c r="P667" t="n">
-        <v>380000</v>
+        <v>18000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="T667" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="668">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,32 +53804,32 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="N668" t="n">
-        <v>310000</v>
+        <v>16000</v>
       </c>
       <c r="O668" t="n">
-        <v>310000</v>
+        <v>16000</v>
       </c>
       <c r="P668" t="n">
-        <v>310000</v>
+        <v>16000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>775</v>
+        <v>889</v>
       </c>
       <c r="T668" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="669">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44529</v>
+        <v>44281</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N669" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="O669" t="n">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="P669" t="n">
-        <v>440000</v>
+        <v>300000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53902,11 +53902,11 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T669" t="n">
         <v>400</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44529</v>
+        <v>44281</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N670" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="O670" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="P670" t="n">
-        <v>380000</v>
+        <v>255000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>950</v>
+        <v>638</v>
       </c>
       <c r="T670" t="n">
         <v>400</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,25 +54035,25 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N671" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="O671" t="n">
-        <v>440000</v>
+        <v>270000</v>
       </c>
       <c r="P671" t="n">
-        <v>435000</v>
+        <v>270000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>1088</v>
+        <v>675</v>
       </c>
       <c r="T671" t="n">
         <v>400</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N672" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="O672" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="P672" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54142,11 +54142,11 @@
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="T672" t="n">
         <v>400</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N673" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O673" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P673" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54222,11 +54222,11 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="T673" t="n">
         <v>400</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N674" t="n">
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="O674" t="n">
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="P674" t="n">
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>450</v>
+        <v>875</v>
       </c>
       <c r="T674" t="n">
         <v>400</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N675" t="n">
-        <v>280000</v>
+        <v>380000</v>
       </c>
       <c r="O675" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="P675" t="n">
-        <v>291429</v>
+        <v>380000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>729</v>
+        <v>950</v>
       </c>
       <c r="T675" t="n">
         <v>400</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N676" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="O676" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="P676" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54462,11 +54462,11 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="T676" t="n">
         <v>400</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,7 +54515,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -54527,13 +54527,13 @@
         <v>24</v>
       </c>
       <c r="N677" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="O677" t="n">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="P677" t="n">
-        <v>244167</v>
+        <v>440000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>610</v>
+        <v>1100</v>
       </c>
       <c r="T677" t="n">
         <v>400</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,7 +54595,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -54604,16 +54604,16 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N678" t="n">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="O678" t="n">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="P678" t="n">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54622,11 +54622,11 @@
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="T678" t="n">
         <v>400</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,7 +54675,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N679" t="n">
-        <v>170000</v>
+        <v>430000</v>
       </c>
       <c r="O679" t="n">
-        <v>170000</v>
+        <v>440000</v>
       </c>
       <c r="P679" t="n">
-        <v>170000</v>
+        <v>435000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>425</v>
+        <v>1088</v>
       </c>
       <c r="T679" t="n">
         <v>400</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54755,7 +54755,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N680" t="n">
-        <v>140000</v>
+        <v>380000</v>
       </c>
       <c r="O680" t="n">
-        <v>140000</v>
+        <v>380000</v>
       </c>
       <c r="P680" t="n">
-        <v>140000</v>
+        <v>380000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="T680" t="n">
         <v>400</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,25 +54835,25 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N681" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O681" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P681" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T681" t="n">
         <v>400</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,29 +54915,29 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="N682" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O682" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="P682" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
@@ -54946,10 +54946,10 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>778</v>
+        <v>450</v>
       </c>
       <c r="T682" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,24 +55000,24 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="N683" t="n">
-        <v>16000</v>
+        <v>280000</v>
       </c>
       <c r="O683" t="n">
-        <v>16000</v>
+        <v>300000</v>
       </c>
       <c r="P683" t="n">
-        <v>16000</v>
+        <v>291429</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
@@ -55026,10 +55026,10 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>889</v>
+        <v>729</v>
       </c>
       <c r="T683" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N684" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O684" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P684" t="n">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>638</v>
+        <v>800</v>
       </c>
       <c r="T684" t="n">
         <v>400</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55164,20 +55164,20 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="N685" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O685" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P685" t="n">
-        <v>12000</v>
+        <v>244167</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
@@ -55186,10 +55186,10 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>667</v>
+        <v>610</v>
       </c>
       <c r="T685" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N686" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O686" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="P686" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="T686" t="n">
         <v>400</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,7 +55315,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N687" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O687" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P687" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T687" t="n">
         <v>400</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N688" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O688" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P688" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="T688" t="n">
         <v>400</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N689" t="n">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="O689" t="n">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="P689" t="n">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55502,11 +55502,11 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="T689" t="n">
         <v>400</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,29 +55555,29 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N690" t="n">
-        <v>140000</v>
+        <v>14000</v>
       </c>
       <c r="O690" t="n">
-        <v>140000</v>
+        <v>14000</v>
       </c>
       <c r="P690" t="n">
-        <v>140000</v>
+        <v>14000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R690" t="inlineStr">
@@ -55586,10 +55586,10 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>350</v>
+        <v>778</v>
       </c>
       <c r="T690" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="691">
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,41 +55635,41 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N691" t="n">
-        <v>70000</v>
+        <v>16000</v>
       </c>
       <c r="O691" t="n">
-        <v>70000</v>
+        <v>16000</v>
       </c>
       <c r="P691" t="n">
-        <v>70000</v>
+        <v>16000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>175</v>
+        <v>889</v>
       </c>
       <c r="T691" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,7 +55715,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -55724,16 +55724,16 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N692" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O692" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P692" t="n">
-        <v>190000</v>
+        <v>255000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55742,11 +55742,11 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>475</v>
+        <v>638</v>
       </c>
       <c r="T692" t="n">
         <v>400</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,7 +55795,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
@@ -55804,20 +55804,20 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N693" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O693" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P693" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R693" t="inlineStr">
@@ -55826,10 +55826,10 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="T693" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="694">
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,7 +55875,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -55884,32 +55884,32 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="N694" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O694" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P694" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="T694" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="695">
@@ -55955,25 +55955,25 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N695" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="O695" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="P695" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="T695" t="n">
         <v>400</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M696" t="n">
         <v>15</v>
       </c>
       <c r="N696" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O696" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P696" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="T696" t="n">
         <v>400</v>
@@ -56115,7 +56115,7 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
@@ -56124,20 +56124,20 @@
         </is>
       </c>
       <c r="M697" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="N697" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="O697" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="P697" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
@@ -56146,10 +56146,10 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>438</v>
+        <v>300</v>
       </c>
       <c r="T697" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="698">
@@ -56195,25 +56195,25 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N698" t="n">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="O698" t="n">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="P698" t="n">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56222,11 +56222,11 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="T698" t="n">
         <v>400</v>
@@ -56275,7 +56275,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -56284,20 +56284,20 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="N699" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="O699" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="P699" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
@@ -56306,10 +56306,10 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="T699" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="700">
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56355,29 +56355,29 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N700" t="n">
-        <v>16000</v>
+        <v>180000</v>
       </c>
       <c r="O700" t="n">
-        <v>16000</v>
+        <v>200000</v>
       </c>
       <c r="P700" t="n">
-        <v>16000</v>
+        <v>190000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
@@ -56386,10 +56386,10 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="T700" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="701">
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,7 +56435,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
@@ -56444,32 +56444,32 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="N701" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O701" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="P701" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>875</v>
+        <v>450</v>
       </c>
       <c r="T701" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="702">
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56515,16 +56515,16 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N702" t="n">
         <v>10000</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56595,25 +56595,25 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N703" t="n">
-        <v>230000</v>
+        <v>110000</v>
       </c>
       <c r="O703" t="n">
-        <v>230000</v>
+        <v>110000</v>
       </c>
       <c r="P703" t="n">
-        <v>230000</v>
+        <v>110000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56622,11 +56622,11 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>575</v>
+        <v>275</v>
       </c>
       <c r="T703" t="n">
         <v>400</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,7 +56675,7 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
@@ -56684,16 +56684,16 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N704" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O704" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P704" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="T704" t="n">
         <v>400</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56755,41 +56755,41 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M705" t="n">
+        <v>90</v>
+      </c>
+      <c r="N705" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O705" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P705" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q705" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R705" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S705" t="n">
+        <v>438</v>
+      </c>
+      <c r="T705" t="n">
         <v>16</v>
-      </c>
-      <c r="N705" t="n">
-        <v>280000</v>
-      </c>
-      <c r="O705" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P705" t="n">
-        <v>280000</v>
-      </c>
-      <c r="Q705" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R705" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S705" t="n">
-        <v>700</v>
-      </c>
-      <c r="T705" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,25 +56835,25 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N706" t="n">
-        <v>250000</v>
+        <v>70000</v>
       </c>
       <c r="O706" t="n">
-        <v>250000</v>
+        <v>70000</v>
       </c>
       <c r="P706" t="n">
-        <v>250000</v>
+        <v>70000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56862,11 +56862,11 @@
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>625</v>
+        <v>175</v>
       </c>
       <c r="T706" t="n">
         <v>400</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,41 +56915,41 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="N707" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="O707" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="P707" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>500</v>
+        <v>312</v>
       </c>
       <c r="T707" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="708">
@@ -56995,7 +56995,7 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
@@ -57004,32 +57004,32 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="N708" t="n">
-        <v>350000</v>
+        <v>16000</v>
       </c>
       <c r="O708" t="n">
-        <v>350000</v>
+        <v>16000</v>
       </c>
       <c r="P708" t="n">
-        <v>350000</v>
+        <v>16000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T708" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="709">
@@ -57075,41 +57075,41 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="N709" t="n">
-        <v>400000</v>
+        <v>14000</v>
       </c>
       <c r="O709" t="n">
-        <v>400000</v>
+        <v>14000</v>
       </c>
       <c r="P709" t="n">
-        <v>400000</v>
+        <v>14000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T709" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="710">
@@ -57155,41 +57155,41 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="N710" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="O710" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="P710" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T710" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="711">
@@ -57235,7 +57235,7 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
@@ -57244,20 +57244,20 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="N711" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="O711" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="P711" t="n">
-        <v>13500</v>
+        <v>230000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
@@ -57266,10 +57266,10 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T711" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="712">
@@ -57315,25 +57315,25 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>White Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M712" t="n">
         <v>12</v>
       </c>
       <c r="N712" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O712" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P712" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T712" t="n">
         <v>400</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>White Lady</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N713" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O713" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P713" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="T713" t="n">
         <v>400</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N714" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="O714" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="P714" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="T714" t="n">
         <v>400</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57555,25 +57555,25 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N715" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O715" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P715" t="n">
-        <v>175000</v>
+        <v>200000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T715" t="n">
         <v>400</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,7 +57635,7 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
@@ -57644,7 +57644,7 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N716" t="n">
         <v>350000</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57715,25 +57715,25 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N717" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="O717" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="P717" t="n">
-        <v>290000</v>
+        <v>400000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>725</v>
+        <v>1000</v>
       </c>
       <c r="T717" t="n">
         <v>400</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57795,29 +57795,29 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="N718" t="n">
-        <v>15000</v>
+        <v>300000</v>
       </c>
       <c r="O718" t="n">
-        <v>16000</v>
+        <v>300000</v>
       </c>
       <c r="P718" t="n">
-        <v>15455</v>
+        <v>300000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
@@ -57826,10 +57826,10 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>859</v>
+        <v>750</v>
       </c>
       <c r="T718" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,7 +57875,7 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
@@ -57884,20 +57884,20 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N719" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O719" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P719" t="n">
-        <v>12333</v>
+        <v>13500</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>685</v>
+        <v>750</v>
       </c>
       <c r="T719" t="n">
         <v>18</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,29 +57955,29 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>White Lady</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="N720" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="O720" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="P720" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
@@ -57986,10 +57986,10 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T720" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,41 +58035,41 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>White Lady</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N721" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="O721" t="n">
-        <v>15000</v>
+        <v>230000</v>
       </c>
       <c r="P721" t="n">
-        <v>14444</v>
+        <v>230000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>903</v>
+        <v>575</v>
       </c>
       <c r="T721" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,41 +58115,41 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N722" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="O722" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="P722" t="n">
-        <v>9400</v>
+        <v>210000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="T722" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,41 +58195,41 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="N723" t="n">
-        <v>7500</v>
+        <v>170000</v>
       </c>
       <c r="O723" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P723" t="n">
-        <v>7714</v>
+        <v>175000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="T723" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,25 +58275,25 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N724" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O724" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="P724" t="n">
-        <v>255000</v>
+        <v>350000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>638</v>
+        <v>875</v>
       </c>
       <c r="T724" t="n">
         <v>400</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,25 +58355,25 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N725" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O725" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="P725" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T725" t="n">
         <v>400</v>
@@ -58435,7 +58435,7 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
@@ -58444,32 +58444,32 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="N726" t="n">
-        <v>170000</v>
+        <v>15000</v>
       </c>
       <c r="O726" t="n">
-        <v>170000</v>
+        <v>16000</v>
       </c>
       <c r="P726" t="n">
-        <v>170000</v>
+        <v>15455</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>425</v>
+        <v>859</v>
       </c>
       <c r="T726" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="727">
@@ -58515,7 +58515,7 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -58524,32 +58524,32 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="N727" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O727" t="n">
-        <v>150000</v>
+        <v>13000</v>
       </c>
       <c r="P727" t="n">
-        <v>150000</v>
+        <v>12333</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>375</v>
+        <v>685</v>
       </c>
       <c r="T727" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="728">
@@ -58595,7 +58595,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -58604,32 +58604,32 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="N728" t="n">
-        <v>120000</v>
+        <v>8000</v>
       </c>
       <c r="O728" t="n">
-        <v>120000</v>
+        <v>8000</v>
       </c>
       <c r="P728" t="n">
-        <v>120000</v>
+        <v>8000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T728" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,41 +58675,41 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N729" t="n">
-        <v>240000</v>
+        <v>14000</v>
       </c>
       <c r="O729" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="P729" t="n">
-        <v>245000</v>
+        <v>14444</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>612</v>
+        <v>903</v>
       </c>
       <c r="T729" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="730">
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,41 +58755,41 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N730" t="n">
-        <v>200000</v>
+        <v>9000</v>
       </c>
       <c r="O730" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P730" t="n">
-        <v>200000</v>
+        <v>9400</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>500</v>
+        <v>588</v>
       </c>
       <c r="T730" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,41 +58835,41 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="N731" t="n">
-        <v>270000</v>
+        <v>7500</v>
       </c>
       <c r="O731" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="P731" t="n">
-        <v>270000</v>
+        <v>7714</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>675</v>
+        <v>482</v>
       </c>
       <c r="T731" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -58924,16 +58924,16 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N732" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O732" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P732" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T732" t="n">
         <v>400</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44195</v>
+        <v>44258</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -58995,29 +58995,29 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="N733" t="n">
-        <v>11000</v>
+        <v>210000</v>
       </c>
       <c r="O733" t="n">
-        <v>11000</v>
+        <v>210000</v>
       </c>
       <c r="P733" t="n">
-        <v>11000</v>
+        <v>210000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
@@ -59026,10 +59026,10 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>688</v>
+        <v>525</v>
       </c>
       <c r="T733" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="734">
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44195</v>
+        <v>44258</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59075,16 +59075,16 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N734" t="n">
         <v>170000</v>
@@ -59102,7 +59102,7 @@
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S734" t="n">
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44195</v>
+        <v>44258</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59155,7 +59155,7 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
@@ -59164,32 +59164,32 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="N735" t="n">
-        <v>9000</v>
+        <v>150000</v>
       </c>
       <c r="O735" t="n">
-        <v>9000</v>
+        <v>150000</v>
       </c>
       <c r="P735" t="n">
-        <v>9000</v>
+        <v>150000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="T735" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="736">
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44195</v>
+        <v>44258</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59235,7 +59235,7 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
@@ -59247,13 +59247,13 @@
         <v>8</v>
       </c>
       <c r="N736" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O736" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P736" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59262,11 +59262,11 @@
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="T736" t="n">
         <v>400</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,29 +59315,29 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="N737" t="n">
-        <v>7000</v>
+        <v>240000</v>
       </c>
       <c r="O737" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="P737" t="n">
-        <v>7000</v>
+        <v>245000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
@@ -59346,10 +59346,10 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>438</v>
+        <v>612</v>
       </c>
       <c r="T737" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,7 +59395,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -59404,7 +59404,7 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N738" t="n">
         <v>200000</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,25 +59475,25 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M739" t="n">
         <v>12</v>
       </c>
       <c r="N739" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O739" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P739" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="T739" t="n">
         <v>400</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,25 +59555,25 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N740" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O740" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P740" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>500</v>
+        <v>588</v>
       </c>
       <c r="T740" t="n">
         <v>400</v>
@@ -59635,29 +59635,29 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="N741" t="n">
-        <v>140000</v>
+        <v>11000</v>
       </c>
       <c r="O741" t="n">
-        <v>140000</v>
+        <v>11000</v>
       </c>
       <c r="P741" t="n">
-        <v>140000</v>
+        <v>11000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
@@ -59666,10 +59666,10 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>350</v>
+        <v>688</v>
       </c>
       <c r="T741" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N742" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="O742" t="n">
-        <v>420000</v>
+        <v>170000</v>
       </c>
       <c r="P742" t="n">
-        <v>413043</v>
+        <v>170000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1033</v>
+        <v>425</v>
       </c>
       <c r="T742" t="n">
         <v>400</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,7 +59795,7 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
@@ -59804,20 +59804,20 @@
         </is>
       </c>
       <c r="M743" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="N743" t="n">
-        <v>350000</v>
+        <v>9000</v>
       </c>
       <c r="O743" t="n">
-        <v>400000</v>
+        <v>9000</v>
       </c>
       <c r="P743" t="n">
-        <v>378235</v>
+        <v>9000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
@@ -59826,10 +59826,10 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>946</v>
+        <v>562</v>
       </c>
       <c r="T743" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,7 +59875,7 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
@@ -59884,16 +59884,16 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N744" t="n">
-        <v>330000</v>
+        <v>140000</v>
       </c>
       <c r="O744" t="n">
-        <v>330000</v>
+        <v>140000</v>
       </c>
       <c r="P744" t="n">
-        <v>330000</v>
+        <v>140000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>825</v>
+        <v>350</v>
       </c>
       <c r="T744" t="n">
         <v>400</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59955,29 +59955,29 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N745" t="n">
-        <v>400000</v>
+        <v>7000</v>
       </c>
       <c r="O745" t="n">
-        <v>400000</v>
+        <v>7000</v>
       </c>
       <c r="P745" t="n">
-        <v>400000</v>
+        <v>7000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
@@ -59986,10 +59986,10 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>1000</v>
+        <v>438</v>
       </c>
       <c r="T745" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="746">
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60035,25 +60035,25 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N746" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="O746" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="P746" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>925</v>
+        <v>500</v>
       </c>
       <c r="T746" t="n">
         <v>400</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N747" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O747" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P747" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>825</v>
+        <v>600</v>
       </c>
       <c r="T747" t="n">
         <v>400</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60195,25 +60195,25 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N748" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O748" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P748" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="T748" t="n">
         <v>400</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N749" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O749" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P749" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60302,11 +60302,11 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="T749" t="n">
         <v>400</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60355,25 +60355,25 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="N750" t="n">
-        <v>130000</v>
+        <v>400000</v>
       </c>
       <c r="O750" t="n">
-        <v>130000</v>
+        <v>420000</v>
       </c>
       <c r="P750" t="n">
-        <v>130000</v>
+        <v>413043</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>325</v>
+        <v>1033</v>
       </c>
       <c r="T750" t="n">
         <v>400</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60435,41 +60435,41 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="N751" t="n">
-        <v>12000</v>
+        <v>350000</v>
       </c>
       <c r="O751" t="n">
-        <v>12000</v>
+        <v>400000</v>
       </c>
       <c r="P751" t="n">
-        <v>12000</v>
+        <v>378235</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>750</v>
+        <v>946</v>
       </c>
       <c r="T751" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N752" t="n">
-        <v>170000</v>
+        <v>330000</v>
       </c>
       <c r="O752" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="P752" t="n">
-        <v>174615</v>
+        <v>330000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>437</v>
+        <v>825</v>
       </c>
       <c r="T752" t="n">
         <v>400</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,41 +60595,41 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N753" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="O753" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="P753" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T753" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="754">
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,25 +60675,25 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N754" t="n">
-        <v>140000</v>
+        <v>370000</v>
       </c>
       <c r="O754" t="n">
-        <v>140000</v>
+        <v>370000</v>
       </c>
       <c r="P754" t="n">
-        <v>140000</v>
+        <v>370000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60702,11 +60702,11 @@
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>350</v>
+        <v>925</v>
       </c>
       <c r="T754" t="n">
         <v>400</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,7 +60755,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -60764,32 +60764,32 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N755" t="n">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="O755" t="n">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="P755" t="n">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>500</v>
+        <v>825</v>
       </c>
       <c r="T755" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,32 +60844,32 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N756" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="O756" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="P756" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>938</v>
+        <v>450</v>
       </c>
       <c r="T756" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,32 +60924,32 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N757" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="O757" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="P757" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>812</v>
+        <v>375</v>
       </c>
       <c r="T757" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -60995,41 +60995,41 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="N758" t="n">
-        <v>14000</v>
+        <v>130000</v>
       </c>
       <c r="O758" t="n">
-        <v>14000</v>
+        <v>130000</v>
       </c>
       <c r="P758" t="n">
-        <v>14000</v>
+        <v>130000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>875</v>
+        <v>325</v>
       </c>
       <c r="T758" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="759">
@@ -61075,25 +61075,25 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N759" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O759" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P759" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61102,11 +61102,11 @@
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T759" t="n">
         <v>16</v>
@@ -61155,7 +61155,7 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
@@ -61164,32 +61164,32 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="N760" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="O760" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="P760" t="n">
-        <v>12000</v>
+        <v>174615</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>750</v>
+        <v>437</v>
       </c>
       <c r="T760" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="761">
@@ -61235,16 +61235,16 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="N761" t="n">
         <v>10000</v>
@@ -61262,7 +61262,7 @@
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S761" t="n">
@@ -61315,25 +61315,25 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N762" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="O762" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P762" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="T762" t="n">
         <v>400</v>
@@ -61395,41 +61395,41 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="N763" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="O763" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="P763" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T763" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="764">
@@ -61475,29 +61475,29 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="N764" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="O764" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="P764" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
@@ -61506,10 +61506,10 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T764" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="765">
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61555,7 +61555,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -61567,29 +61567,29 @@
         <v>150</v>
       </c>
       <c r="N765" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O765" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P765" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>1375</v>
+        <v>812</v>
       </c>
       <c r="T765" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61635,7 +61635,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -61644,20 +61644,20 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N766" t="n">
-        <v>360000</v>
+        <v>14000</v>
       </c>
       <c r="O766" t="n">
-        <v>370000</v>
+        <v>14000</v>
       </c>
       <c r="P766" t="n">
-        <v>366000</v>
+        <v>14000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
@@ -61666,10 +61666,10 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>915</v>
+        <v>875</v>
       </c>
       <c r="T766" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61715,29 +61715,29 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N767" t="n">
-        <v>330000</v>
+        <v>15000</v>
       </c>
       <c r="O767" t="n">
-        <v>340000</v>
+        <v>15000</v>
       </c>
       <c r="P767" t="n">
-        <v>336923</v>
+        <v>15000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
@@ -61746,10 +61746,10 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>842</v>
+        <v>938</v>
       </c>
       <c r="T767" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="768">
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,29 +61795,29 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="N768" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="O768" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="P768" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
@@ -61826,10 +61826,10 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T768" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,41 +61875,41 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="N769" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="O769" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P769" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="T769" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61955,25 +61955,25 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N770" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O770" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P770" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61982,11 +61982,11 @@
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="T770" t="n">
         <v>400</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62035,25 +62035,25 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N771" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O771" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P771" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62062,11 +62062,11 @@
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T771" t="n">
         <v>400</v>
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62115,25 +62115,25 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N772" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O772" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P772" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="T772" t="n">
         <v>400</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62195,41 +62195,41 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M773" t="n">
+        <v>150</v>
+      </c>
+      <c r="N773" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O773" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P773" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q773" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R773" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S773" t="n">
+        <v>1375</v>
+      </c>
+      <c r="T773" t="n">
         <v>8</v>
-      </c>
-      <c r="N773" t="n">
-        <v>190000</v>
-      </c>
-      <c r="O773" t="n">
-        <v>190000</v>
-      </c>
-      <c r="P773" t="n">
-        <v>190000</v>
-      </c>
-      <c r="Q773" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R773" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S773" t="n">
-        <v>475</v>
-      </c>
-      <c r="T773" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,20 +62284,20 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N774" t="n">
-        <v>18000</v>
+        <v>360000</v>
       </c>
       <c r="O774" t="n">
-        <v>18000</v>
+        <v>370000</v>
       </c>
       <c r="P774" t="n">
-        <v>18000</v>
+        <v>366000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
@@ -62306,10 +62306,10 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>1125</v>
+        <v>915</v>
       </c>
       <c r="T774" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="775">
@@ -62327,68 +62327,708 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E775" t="n">
+        <v>13</v>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G775" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I775" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J775" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M775" t="n">
+        <v>26</v>
+      </c>
+      <c r="N775" t="n">
+        <v>330000</v>
+      </c>
+      <c r="O775" t="n">
+        <v>340000</v>
+      </c>
+      <c r="P775" t="n">
+        <v>336923</v>
+      </c>
+      <c r="Q775" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R775" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S775" t="n">
+        <v>842</v>
+      </c>
+      <c r="T775" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>6</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D776" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E776" t="n">
+        <v>13</v>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G776" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I776" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J776" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M776" t="n">
+        <v>15</v>
+      </c>
+      <c r="N776" t="n">
+        <v>320000</v>
+      </c>
+      <c r="O776" t="n">
+        <v>320000</v>
+      </c>
+      <c r="P776" t="n">
+        <v>320000</v>
+      </c>
+      <c r="Q776" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R776" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S776" t="n">
+        <v>800</v>
+      </c>
+      <c r="T776" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>6</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D777" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E775" t="n">
-        <v>13</v>
-      </c>
-      <c r="F775" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G775" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I775" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J775" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K775" t="inlineStr">
+      <c r="E777" t="n">
+        <v>13</v>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G777" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I777" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M777" t="n">
+        <v>9</v>
+      </c>
+      <c r="N777" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O777" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P777" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q777" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R777" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S777" t="n">
+        <v>650</v>
+      </c>
+      <c r="T777" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>6</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D778" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E778" t="n">
+        <v>13</v>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G778" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I778" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M778" t="n">
+        <v>13</v>
+      </c>
+      <c r="N778" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O778" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P778" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q778" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R778" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S778" t="n">
+        <v>575</v>
+      </c>
+      <c r="T778" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>6</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D779" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E779" t="n">
+        <v>13</v>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G779" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I779" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M779" t="n">
+        <v>15</v>
+      </c>
+      <c r="N779" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O779" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P779" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Q779" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R779" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S779" t="n">
+        <v>500</v>
+      </c>
+      <c r="T779" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>6</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D780" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E780" t="n">
+        <v>13</v>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G780" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I780" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>Kakamas</t>
+        </is>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M780" t="n">
+        <v>13</v>
+      </c>
+      <c r="N780" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O780" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P780" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q780" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R780" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S780" t="n">
+        <v>575</v>
+      </c>
+      <c r="T780" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>6</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D781" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E781" t="n">
+        <v>13</v>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G781" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I781" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>Kakamas</t>
+        </is>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M781" t="n">
+        <v>8</v>
+      </c>
+      <c r="N781" t="n">
+        <v>190000</v>
+      </c>
+      <c r="O781" t="n">
+        <v>190000</v>
+      </c>
+      <c r="P781" t="n">
+        <v>190000</v>
+      </c>
+      <c r="Q781" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R781" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S781" t="n">
+        <v>475</v>
+      </c>
+      <c r="T781" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>6</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D782" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E782" t="n">
+        <v>13</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I782" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K782" t="inlineStr">
         <is>
           <t>Phillips Cling</t>
         </is>
       </c>
-      <c r="L775" t="inlineStr">
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M782" t="n">
+        <v>80</v>
+      </c>
+      <c r="N782" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O782" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P782" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q782" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S782" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T782" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>6</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D783" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E783" t="n">
+        <v>13</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I783" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L783" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M775" t="n">
+      <c r="M783" t="n">
         <v>120</v>
       </c>
-      <c r="N775" t="n">
+      <c r="N783" t="n">
         <v>16000</v>
       </c>
-      <c r="O775" t="n">
+      <c r="O783" t="n">
         <v>16000</v>
       </c>
-      <c r="P775" t="n">
+      <c r="P783" t="n">
         <v>16000</v>
       </c>
-      <c r="Q775" t="inlineStr">
+      <c r="Q783" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R775" t="inlineStr">
+      <c r="R783" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S775" t="n">
+      <c r="S783" t="n">
         <v>1000</v>
       </c>
-      <c r="T775" t="n">
+      <c r="T783" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T902"/>
+  <dimension ref="A1:T910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -69955,7 +69955,7 @@
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
@@ -69964,16 +69964,16 @@
         </is>
       </c>
       <c r="M870" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N870" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O870" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P870" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
@@ -69986,7 +69986,7 @@
         </is>
       </c>
       <c r="S870" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T870" t="n">
         <v>400</v>
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -70035,41 +70035,41 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N871" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O871" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P871" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T871" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="872">
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -70115,25 +70115,25 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N872" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O872" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P872" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
@@ -70146,7 +70146,7 @@
         </is>
       </c>
       <c r="S872" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="T872" t="n">
         <v>400</v>
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -70195,41 +70195,41 @@
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="N873" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="O873" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P873" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T873" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="874">
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -70275,25 +70275,25 @@
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M874" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N874" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O874" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P874" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
@@ -70306,7 +70306,7 @@
         </is>
       </c>
       <c r="S874" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T874" t="n">
         <v>400</v>
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -70360,20 +70360,20 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N875" t="n">
-        <v>430000</v>
+        <v>170000</v>
       </c>
       <c r="O875" t="n">
-        <v>430000</v>
+        <v>170000</v>
       </c>
       <c r="P875" t="n">
-        <v>430000</v>
+        <v>170000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
@@ -70386,7 +70386,7 @@
         </is>
       </c>
       <c r="S875" t="n">
-        <v>1075</v>
+        <v>425</v>
       </c>
       <c r="T875" t="n">
         <v>400</v>
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -70435,25 +70435,25 @@
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N876" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="O876" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="P876" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
@@ -70462,11 +70462,11 @@
       </c>
       <c r="R876" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S876" t="n">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="T876" t="n">
         <v>400</v>
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -70515,7 +70515,7 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
@@ -70524,16 +70524,16 @@
         </is>
       </c>
       <c r="M877" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N877" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="O877" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="P877" t="n">
-        <v>378571</v>
+        <v>320000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
@@ -70546,7 +70546,7 @@
         </is>
       </c>
       <c r="S877" t="n">
-        <v>946</v>
+        <v>800</v>
       </c>
       <c r="T877" t="n">
         <v>400</v>
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -70595,25 +70595,25 @@
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N878" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O878" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P878" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
@@ -70622,11 +70622,11 @@
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S878" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T878" t="n">
         <v>400</v>
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -70675,41 +70675,41 @@
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N879" t="n">
-        <v>340000</v>
+        <v>14000</v>
       </c>
       <c r="O879" t="n">
-        <v>340000</v>
+        <v>14000</v>
       </c>
       <c r="P879" t="n">
-        <v>340000</v>
+        <v>14000</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S879" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="T879" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="880">
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -70755,25 +70755,25 @@
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N880" t="n">
-        <v>420000</v>
+        <v>250000</v>
       </c>
       <c r="O880" t="n">
-        <v>420000</v>
+        <v>250000</v>
       </c>
       <c r="P880" t="n">
-        <v>420000</v>
+        <v>250000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
@@ -70786,7 +70786,7 @@
         </is>
       </c>
       <c r="S880" t="n">
-        <v>1050</v>
+        <v>625</v>
       </c>
       <c r="T880" t="n">
         <v>400</v>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -70835,7 +70835,7 @@
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
@@ -70844,32 +70844,32 @@
         </is>
       </c>
       <c r="M881" t="n">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="N881" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="O881" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="P881" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S881" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T881" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="882">
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -70915,7 +70915,7 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
@@ -70924,16 +70924,16 @@
         </is>
       </c>
       <c r="M882" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N882" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="O882" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="P882" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
@@ -70946,7 +70946,7 @@
         </is>
       </c>
       <c r="S882" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T882" t="n">
         <v>400</v>
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -70995,7 +70995,7 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
@@ -71004,20 +71004,20 @@
         </is>
       </c>
       <c r="M883" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="N883" t="n">
-        <v>14000</v>
+        <v>430000</v>
       </c>
       <c r="O883" t="n">
-        <v>14000</v>
+        <v>430000</v>
       </c>
       <c r="P883" t="n">
-        <v>14000</v>
+        <v>430000</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
@@ -71026,10 +71026,10 @@
         </is>
       </c>
       <c r="S883" t="n">
-        <v>778</v>
+        <v>1075</v>
       </c>
       <c r="T883" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="884">
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -71075,7 +71075,7 @@
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
@@ -71084,16 +71084,16 @@
         </is>
       </c>
       <c r="M884" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N884" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="O884" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="P884" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
@@ -71102,11 +71102,11 @@
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>625</v>
+        <v>900</v>
       </c>
       <c r="T884" t="n">
         <v>400</v>
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -71155,7 +71155,7 @@
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
@@ -71164,20 +71164,20 @@
         </is>
       </c>
       <c r="M885" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="N885" t="n">
-        <v>12000</v>
+        <v>370000</v>
       </c>
       <c r="O885" t="n">
-        <v>12000</v>
+        <v>400000</v>
       </c>
       <c r="P885" t="n">
-        <v>12000</v>
+        <v>378571</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R885" t="inlineStr">
@@ -71186,10 +71186,10 @@
         </is>
       </c>
       <c r="S885" t="n">
-        <v>667</v>
+        <v>946</v>
       </c>
       <c r="T885" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="886">
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -71235,7 +71235,7 @@
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
@@ -71244,16 +71244,16 @@
         </is>
       </c>
       <c r="M886" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N886" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="O886" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P886" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
@@ -71262,11 +71262,11 @@
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S886" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T886" t="n">
         <v>400</v>
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -71315,7 +71315,7 @@
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
@@ -71324,20 +71324,20 @@
         </is>
       </c>
       <c r="M887" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N887" t="n">
-        <v>10000</v>
+        <v>340000</v>
       </c>
       <c r="O887" t="n">
-        <v>10000</v>
+        <v>340000</v>
       </c>
       <c r="P887" t="n">
-        <v>10000</v>
+        <v>340000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R887" t="inlineStr">
@@ -71346,10 +71346,10 @@
         </is>
       </c>
       <c r="S887" t="n">
-        <v>556</v>
+        <v>850</v>
       </c>
       <c r="T887" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="888">
@@ -71367,7 +71367,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -71395,25 +71395,25 @@
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N888" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="O888" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="P888" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
@@ -71426,7 +71426,7 @@
         </is>
       </c>
       <c r="S888" t="n">
-        <v>650</v>
+        <v>1050</v>
       </c>
       <c r="T888" t="n">
         <v>400</v>
@@ -71447,7 +71447,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -71475,25 +71475,25 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M889" t="n">
         <v>15</v>
       </c>
       <c r="N889" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O889" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P889" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
@@ -71506,7 +71506,7 @@
         </is>
       </c>
       <c r="S889" t="n">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="T889" t="n">
         <v>400</v>
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -71555,25 +71555,25 @@
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M890" t="n">
         <v>15</v>
       </c>
       <c r="N890" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O890" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P890" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
@@ -71586,7 +71586,7 @@
         </is>
       </c>
       <c r="S890" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T890" t="n">
         <v>400</v>
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -71635,29 +71635,29 @@
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="N891" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="O891" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="P891" t="n">
-        <v>255000</v>
+        <v>14000</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R891" t="inlineStr">
@@ -71666,10 +71666,10 @@
         </is>
       </c>
       <c r="S891" t="n">
-        <v>638</v>
+        <v>778</v>
       </c>
       <c r="T891" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="892">
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -71715,7 +71715,7 @@
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
@@ -71724,16 +71724,16 @@
         </is>
       </c>
       <c r="M892" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N892" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O892" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P892" t="n">
-        <v>265000</v>
+        <v>250000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
@@ -71746,7 +71746,7 @@
         </is>
       </c>
       <c r="S892" t="n">
-        <v>662</v>
+        <v>625</v>
       </c>
       <c r="T892" t="n">
         <v>400</v>
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -71795,7 +71795,7 @@
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
@@ -71804,32 +71804,32 @@
         </is>
       </c>
       <c r="M893" t="n">
+        <v>150</v>
+      </c>
+      <c r="N893" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O893" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P893" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q893" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R893" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S893" t="n">
+        <v>667</v>
+      </c>
+      <c r="T893" t="n">
         <v>18</v>
-      </c>
-      <c r="N893" t="n">
-        <v>260000</v>
-      </c>
-      <c r="O893" t="n">
-        <v>270000</v>
-      </c>
-      <c r="P893" t="n">
-        <v>265000</v>
-      </c>
-      <c r="Q893" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R893" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S893" t="n">
-        <v>662</v>
-      </c>
-      <c r="T893" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="894">
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -71880,20 +71880,20 @@
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N894" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O894" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P894" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
@@ -71906,7 +71906,7 @@
         </is>
       </c>
       <c r="S894" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="T894" t="n">
         <v>400</v>
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -71960,24 +71960,24 @@
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="N895" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O895" t="n">
-        <v>240000</v>
+        <v>10000</v>
       </c>
       <c r="P895" t="n">
-        <v>235000</v>
+        <v>10000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R895" t="inlineStr">
@@ -71986,10 +71986,10 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="T895" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="896">
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -72035,25 +72035,25 @@
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M896" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N896" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O896" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P896" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
@@ -72066,7 +72066,7 @@
         </is>
       </c>
       <c r="S896" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T896" t="n">
         <v>400</v>
@@ -72087,7 +72087,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44277</v>
+        <v>44264</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -72115,25 +72115,25 @@
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M897" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N897" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O897" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P897" t="n">
-        <v>265000</v>
+        <v>220000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
@@ -72146,7 +72146,7 @@
         </is>
       </c>
       <c r="S897" t="n">
-        <v>662</v>
+        <v>550</v>
       </c>
       <c r="T897" t="n">
         <v>400</v>
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -72195,25 +72195,25 @@
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N898" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O898" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P898" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
@@ -72226,7 +72226,7 @@
         </is>
       </c>
       <c r="S898" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="T898" t="n">
         <v>400</v>
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44525</v>
+        <v>44571</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -72275,7 +72275,7 @@
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
@@ -72284,32 +72284,32 @@
         </is>
       </c>
       <c r="M899" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N899" t="n">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="O899" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="P899" t="n">
-        <v>450000</v>
+        <v>255000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S899" t="n">
-        <v>1071</v>
+        <v>638</v>
       </c>
       <c r="T899" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="900">
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44525</v>
+        <v>44571</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -72355,41 +72355,41 @@
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N900" t="n">
-        <v>420000</v>
+        <v>260000</v>
       </c>
       <c r="O900" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="P900" t="n">
-        <v>420000</v>
+        <v>265000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R900" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S900" t="n">
-        <v>1000</v>
+        <v>662</v>
       </c>
       <c r="T900" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="901">
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44525</v>
+        <v>44571</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -72435,7 +72435,7 @@
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
@@ -72444,32 +72444,32 @@
         </is>
       </c>
       <c r="M901" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N901" t="n">
-        <v>460000</v>
+        <v>260000</v>
       </c>
       <c r="O901" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="P901" t="n">
-        <v>460000</v>
+        <v>265000</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S901" t="n">
-        <v>1095</v>
+        <v>662</v>
       </c>
       <c r="T901" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="902">
@@ -72487,68 +72487,708 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E902" t="n">
+        <v>13</v>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G902" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I902" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J902" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M902" t="n">
+        <v>5</v>
+      </c>
+      <c r="N902" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O902" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P902" t="n">
+        <v>270000</v>
+      </c>
+      <c r="Q902" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R902" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S902" t="n">
+        <v>675</v>
+      </c>
+      <c r="T902" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>6</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D903" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E903" t="n">
+        <v>13</v>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G903" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I903" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J903" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M903" t="n">
+        <v>14</v>
+      </c>
+      <c r="N903" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O903" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P903" t="n">
+        <v>235000</v>
+      </c>
+      <c r="Q903" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R903" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S903" t="n">
+        <v>588</v>
+      </c>
+      <c r="T903" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>6</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D904" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E904" t="n">
+        <v>13</v>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G904" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I904" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J904" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M904" t="n">
+        <v>12</v>
+      </c>
+      <c r="N904" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O904" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P904" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q904" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R904" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S904" t="n">
+        <v>550</v>
+      </c>
+      <c r="T904" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>6</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D905" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E905" t="n">
+        <v>13</v>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G905" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I905" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J905" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M905" t="n">
+        <v>14</v>
+      </c>
+      <c r="N905" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O905" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P905" t="n">
+        <v>265000</v>
+      </c>
+      <c r="Q905" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R905" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S905" t="n">
+        <v>662</v>
+      </c>
+      <c r="T905" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>6</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D906" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E906" t="n">
+        <v>13</v>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G906" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I906" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J906" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M906" t="n">
+        <v>12</v>
+      </c>
+      <c r="N906" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O906" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P906" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q906" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R906" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S906" t="n">
+        <v>575</v>
+      </c>
+      <c r="T906" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>6</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D907" s="2" t="n">
         <v>44525</v>
       </c>
-      <c r="E902" t="n">
-        <v>13</v>
-      </c>
-      <c r="F902" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G902" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I902" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J902" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K902" t="inlineStr">
+      <c r="E907" t="n">
+        <v>13</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G907" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I907" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J907" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M907" t="n">
+        <v>15</v>
+      </c>
+      <c r="N907" t="n">
+        <v>450000</v>
+      </c>
+      <c r="O907" t="n">
+        <v>450000</v>
+      </c>
+      <c r="P907" t="n">
+        <v>450000</v>
+      </c>
+      <c r="Q907" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R907" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S907" t="n">
+        <v>1071</v>
+      </c>
+      <c r="T907" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>6</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D908" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E908" t="n">
+        <v>13</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G908" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I908" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J908" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M908" t="n">
+        <v>15</v>
+      </c>
+      <c r="N908" t="n">
+        <v>420000</v>
+      </c>
+      <c r="O908" t="n">
+        <v>420000</v>
+      </c>
+      <c r="P908" t="n">
+        <v>420000</v>
+      </c>
+      <c r="Q908" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R908" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S908" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T908" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>6</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D909" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E909" t="n">
+        <v>13</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G909" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I909" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K909" t="inlineStr">
         <is>
           <t>Florida King</t>
         </is>
       </c>
-      <c r="L902" t="inlineStr">
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M909" t="n">
+        <v>17</v>
+      </c>
+      <c r="N909" t="n">
+        <v>460000</v>
+      </c>
+      <c r="O909" t="n">
+        <v>460000</v>
+      </c>
+      <c r="P909" t="n">
+        <v>460000</v>
+      </c>
+      <c r="Q909" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R909" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S909" t="n">
+        <v>1095</v>
+      </c>
+      <c r="T909" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>6</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D910" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E910" t="n">
+        <v>13</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G910" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I910" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J910" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L910" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M902" t="n">
+      <c r="M910" t="n">
         <v>15</v>
       </c>
-      <c r="N902" t="n">
+      <c r="N910" t="n">
         <v>430000</v>
       </c>
-      <c r="O902" t="n">
+      <c r="O910" t="n">
         <v>430000</v>
       </c>
-      <c r="P902" t="n">
+      <c r="P910" t="n">
         <v>430000</v>
       </c>
-      <c r="Q902" t="inlineStr">
+      <c r="Q910" t="inlineStr">
         <is>
           <t>$/bins (420 kilos)</t>
         </is>
       </c>
-      <c r="R902" t="inlineStr">
+      <c r="R910" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S902" t="n">
+      <c r="S910" t="n">
         <v>1024</v>
       </c>
-      <c r="T902" t="n">
+      <c r="T910" t="n">
         <v>420</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T936"/>
+  <dimension ref="A1:T943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -70915,25 +70915,25 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M882" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N882" t="n">
-        <v>250000</v>
+        <v>310000</v>
       </c>
       <c r="O882" t="n">
-        <v>250000</v>
+        <v>310000</v>
       </c>
       <c r="P882" t="n">
-        <v>250000</v>
+        <v>310000</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
@@ -70946,7 +70946,7 @@
         </is>
       </c>
       <c r="S882" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T882" t="n">
         <v>400</v>
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -70995,25 +70995,25 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N883" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O883" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P883" t="n">
-        <v>220000</v>
+        <v>265000</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
@@ -71026,7 +71026,7 @@
         </is>
       </c>
       <c r="S883" t="n">
-        <v>550</v>
+        <v>662</v>
       </c>
       <c r="T883" t="n">
         <v>400</v>
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -71075,25 +71075,25 @@
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M884" t="n">
         <v>15</v>
       </c>
       <c r="N884" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O884" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P884" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
@@ -71102,11 +71102,11 @@
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T884" t="n">
         <v>400</v>
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -71155,25 +71155,25 @@
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N885" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="O885" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P885" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
@@ -71182,11 +71182,11 @@
       </c>
       <c r="R885" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S885" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="T885" t="n">
         <v>400</v>
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -71235,25 +71235,25 @@
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M886" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N886" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O886" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="P886" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
@@ -71266,7 +71266,7 @@
         </is>
       </c>
       <c r="S886" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T886" t="n">
         <v>400</v>
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -71315,25 +71315,25 @@
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N887" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="O887" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P887" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
@@ -71342,11 +71342,11 @@
       </c>
       <c r="R887" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S887" t="n">
-        <v>425</v>
+        <v>700</v>
       </c>
       <c r="T887" t="n">
         <v>400</v>
@@ -71367,7 +71367,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -71395,7 +71395,7 @@
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
@@ -71404,16 +71404,16 @@
         </is>
       </c>
       <c r="M888" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N888" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O888" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P888" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
@@ -71426,7 +71426,7 @@
         </is>
       </c>
       <c r="S888" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="T888" t="n">
         <v>400</v>
@@ -71475,7 +71475,7 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
@@ -71484,16 +71484,16 @@
         </is>
       </c>
       <c r="M889" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N889" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="O889" t="n">
-        <v>400000</v>
+        <v>250000</v>
       </c>
       <c r="P889" t="n">
-        <v>388333</v>
+        <v>250000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
@@ -71506,7 +71506,7 @@
         </is>
       </c>
       <c r="S889" t="n">
-        <v>971</v>
+        <v>625</v>
       </c>
       <c r="T889" t="n">
         <v>400</v>
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -71555,25 +71555,25 @@
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N890" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O890" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P890" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
@@ -71582,11 +71582,11 @@
       </c>
       <c r="R890" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S890" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T890" t="n">
         <v>400</v>
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -71635,25 +71635,25 @@
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N891" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O891" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P891" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
@@ -71662,11 +71662,11 @@
       </c>
       <c r="R891" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S891" t="n">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="T891" t="n">
         <v>400</v>
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -71715,25 +71715,25 @@
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M892" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N892" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O892" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P892" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
@@ -71742,11 +71742,11 @@
       </c>
       <c r="R892" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S892" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T892" t="n">
         <v>400</v>
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -71795,7 +71795,7 @@
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
@@ -71804,16 +71804,16 @@
         </is>
       </c>
       <c r="M893" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N893" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O893" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P893" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
@@ -71826,7 +71826,7 @@
         </is>
       </c>
       <c r="S893" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="T893" t="n">
         <v>400</v>
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -71875,7 +71875,7 @@
       </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L894" t="inlineStr">
@@ -71884,16 +71884,16 @@
         </is>
       </c>
       <c r="M894" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N894" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="O894" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="P894" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
@@ -71902,11 +71902,11 @@
       </c>
       <c r="R894" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S894" t="n">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="T894" t="n">
         <v>400</v>
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -71955,29 +71955,29 @@
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N895" t="n">
-        <v>18000</v>
+        <v>160000</v>
       </c>
       <c r="O895" t="n">
-        <v>18000</v>
+        <v>160000</v>
       </c>
       <c r="P895" t="n">
-        <v>18000</v>
+        <v>160000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R895" t="inlineStr">
@@ -71986,10 +71986,10 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>1125</v>
+        <v>400</v>
       </c>
       <c r="T895" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="896">
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -72035,7 +72035,7 @@
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
@@ -72044,20 +72044,20 @@
         </is>
       </c>
       <c r="M896" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N896" t="n">
-        <v>16000</v>
+        <v>380000</v>
       </c>
       <c r="O896" t="n">
-        <v>16000</v>
+        <v>400000</v>
       </c>
       <c r="P896" t="n">
-        <v>16000</v>
+        <v>388333</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
@@ -72066,10 +72066,10 @@
         </is>
       </c>
       <c r="S896" t="n">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="T896" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="897">
@@ -72087,7 +72087,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -72115,7 +72115,7 @@
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
@@ -72124,16 +72124,16 @@
         </is>
       </c>
       <c r="M897" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="N897" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="O897" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="P897" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
@@ -72142,11 +72142,11 @@
       </c>
       <c r="R897" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S897" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="T897" t="n">
         <v>400</v>
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -72195,41 +72195,41 @@
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="N898" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="O898" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="P898" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R898" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S898" t="n">
-        <v>778</v>
+        <v>575</v>
       </c>
       <c r="T898" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="899">
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -72275,25 +72275,25 @@
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M899" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N899" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="O899" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="P899" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
@@ -72302,11 +72302,11 @@
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S899" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T899" t="n">
         <v>400</v>
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -72355,7 +72355,7 @@
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
@@ -72364,20 +72364,20 @@
         </is>
       </c>
       <c r="M900" t="n">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="N900" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O900" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P900" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R900" t="inlineStr">
@@ -72386,10 +72386,10 @@
         </is>
       </c>
       <c r="S900" t="n">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="T900" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="901">
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -72435,7 +72435,7 @@
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
@@ -72444,16 +72444,16 @@
         </is>
       </c>
       <c r="M901" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="N901" t="n">
-        <v>290000</v>
+        <v>190000</v>
       </c>
       <c r="O901" t="n">
-        <v>290000</v>
+        <v>190000</v>
       </c>
       <c r="P901" t="n">
-        <v>290000</v>
+        <v>190000</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
@@ -72466,7 +72466,7 @@
         </is>
       </c>
       <c r="S901" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="T901" t="n">
         <v>400</v>
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -72515,29 +72515,29 @@
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N902" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O902" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P902" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R902" t="inlineStr">
@@ -72546,10 +72546,10 @@
         </is>
       </c>
       <c r="S902" t="n">
-        <v>556</v>
+        <v>1125</v>
       </c>
       <c r="T902" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="903">
@@ -72567,7 +72567,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -72595,29 +72595,29 @@
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M903" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N903" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O903" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P903" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
@@ -72626,10 +72626,10 @@
         </is>
       </c>
       <c r="S903" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T903" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="904">
@@ -72675,25 +72675,25 @@
       </c>
       <c r="K904" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M904" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N904" t="n">
-        <v>340000</v>
+        <v>380000</v>
       </c>
       <c r="O904" t="n">
-        <v>350000</v>
+        <v>380000</v>
       </c>
       <c r="P904" t="n">
-        <v>345000</v>
+        <v>380000</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
@@ -72706,7 +72706,7 @@
         </is>
       </c>
       <c r="S904" t="n">
-        <v>862</v>
+        <v>950</v>
       </c>
       <c r="T904" t="n">
         <v>400</v>
@@ -72755,29 +72755,29 @@
       </c>
       <c r="K905" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M905" t="n">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="N905" t="n">
-        <v>300000</v>
+        <v>14000</v>
       </c>
       <c r="O905" t="n">
-        <v>300000</v>
+        <v>14000</v>
       </c>
       <c r="P905" t="n">
-        <v>300000</v>
+        <v>14000</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
@@ -72786,10 +72786,10 @@
         </is>
       </c>
       <c r="S905" t="n">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="T905" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="906">
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -72835,7 +72835,7 @@
       </c>
       <c r="K906" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L906" t="inlineStr">
@@ -72844,16 +72844,16 @@
         </is>
       </c>
       <c r="M906" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N906" t="n">
-        <v>430000</v>
+        <v>350000</v>
       </c>
       <c r="O906" t="n">
-        <v>450000</v>
+        <v>350000</v>
       </c>
       <c r="P906" t="n">
-        <v>440000</v>
+        <v>350000</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
@@ -72862,11 +72862,11 @@
       </c>
       <c r="R906" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S906" t="n">
-        <v>1100</v>
+        <v>875</v>
       </c>
       <c r="T906" t="n">
         <v>400</v>
@@ -72887,7 +72887,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -72915,41 +72915,41 @@
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M907" t="n">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="N907" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="O907" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="P907" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R907" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S907" t="n">
-        <v>950</v>
+        <v>667</v>
       </c>
       <c r="T907" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="908">
@@ -72967,7 +72967,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -73000,20 +73000,20 @@
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M908" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N908" t="n">
-        <v>430000</v>
+        <v>290000</v>
       </c>
       <c r="O908" t="n">
-        <v>440000</v>
+        <v>290000</v>
       </c>
       <c r="P908" t="n">
-        <v>435000</v>
+        <v>290000</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
@@ -73022,11 +73022,11 @@
       </c>
       <c r="R908" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S908" t="n">
-        <v>1088</v>
+        <v>725</v>
       </c>
       <c r="T908" t="n">
         <v>400</v>
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -73084,32 +73084,32 @@
         </is>
       </c>
       <c r="M909" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="N909" t="n">
-        <v>380000</v>
+        <v>10000</v>
       </c>
       <c r="O909" t="n">
-        <v>380000</v>
+        <v>10000</v>
       </c>
       <c r="P909" t="n">
-        <v>380000</v>
+        <v>10000</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S909" t="n">
-        <v>950</v>
+        <v>556</v>
       </c>
       <c r="T909" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="910">
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -73155,29 +73155,29 @@
       </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="N910" t="n">
-        <v>350000</v>
+        <v>8000</v>
       </c>
       <c r="O910" t="n">
-        <v>350000</v>
+        <v>8000</v>
       </c>
       <c r="P910" t="n">
-        <v>350000</v>
+        <v>8000</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R910" t="inlineStr">
@@ -73186,10 +73186,10 @@
         </is>
       </c>
       <c r="S910" t="n">
-        <v>875</v>
+        <v>444</v>
       </c>
       <c r="T910" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="911">
@@ -73207,7 +73207,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -73235,7 +73235,7 @@
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
@@ -73244,16 +73244,16 @@
         </is>
       </c>
       <c r="M911" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N911" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="O911" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P911" t="n">
-        <v>300000</v>
+        <v>345000</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
@@ -73266,7 +73266,7 @@
         </is>
       </c>
       <c r="S911" t="n">
-        <v>750</v>
+        <v>862</v>
       </c>
       <c r="T911" t="n">
         <v>400</v>
@@ -73287,7 +73287,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44209</v>
+        <v>44162</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -73315,25 +73315,25 @@
       </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L912" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M912" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N912" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O912" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P912" t="n">
-        <v>212857</v>
+        <v>300000</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
@@ -73346,7 +73346,7 @@
         </is>
       </c>
       <c r="S912" t="n">
-        <v>532</v>
+        <v>750</v>
       </c>
       <c r="T912" t="n">
         <v>400</v>
@@ -73367,7 +73367,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44209</v>
+        <v>44529</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -73395,25 +73395,25 @@
       </c>
       <c r="K913" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M913" t="n">
         <v>24</v>
       </c>
       <c r="N913" t="n">
-        <v>250000</v>
+        <v>430000</v>
       </c>
       <c r="O913" t="n">
-        <v>260000</v>
+        <v>450000</v>
       </c>
       <c r="P913" t="n">
-        <v>256667</v>
+        <v>440000</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
@@ -73422,11 +73422,11 @@
       </c>
       <c r="R913" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S913" t="n">
-        <v>642</v>
+        <v>1100</v>
       </c>
       <c r="T913" t="n">
         <v>400</v>
@@ -73447,7 +73447,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44209</v>
+        <v>44529</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -73475,25 +73475,25 @@
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M914" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N914" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O914" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="P914" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="Q914" t="inlineStr">
         <is>
@@ -73506,7 +73506,7 @@
         </is>
       </c>
       <c r="S914" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="T914" t="n">
         <v>400</v>
@@ -73527,7 +73527,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44209</v>
+        <v>44529</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -73555,7 +73555,7 @@
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
@@ -73564,16 +73564,16 @@
         </is>
       </c>
       <c r="M915" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N915" t="n">
-        <v>170000</v>
+        <v>430000</v>
       </c>
       <c r="O915" t="n">
-        <v>180000</v>
+        <v>440000</v>
       </c>
       <c r="P915" t="n">
-        <v>176316</v>
+        <v>435000</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
@@ -73582,11 +73582,11 @@
       </c>
       <c r="R915" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S915" t="n">
-        <v>441</v>
+        <v>1088</v>
       </c>
       <c r="T915" t="n">
         <v>400</v>
@@ -73607,7 +73607,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44209</v>
+        <v>44529</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -73635,7 +73635,7 @@
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L916" t="inlineStr">
@@ -73644,16 +73644,16 @@
         </is>
       </c>
       <c r="M916" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N916" t="n">
-        <v>200000</v>
+        <v>380000</v>
       </c>
       <c r="O916" t="n">
-        <v>200000</v>
+        <v>380000</v>
       </c>
       <c r="P916" t="n">
-        <v>200000</v>
+        <v>380000</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
@@ -73666,7 +73666,7 @@
         </is>
       </c>
       <c r="S916" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="T916" t="n">
         <v>400</v>
@@ -73687,7 +73687,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -73715,25 +73715,25 @@
       </c>
       <c r="K917" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M917" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N917" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="O917" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="P917" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
@@ -73746,7 +73746,7 @@
         </is>
       </c>
       <c r="S917" t="n">
-        <v>350</v>
+        <v>875</v>
       </c>
       <c r="T917" t="n">
         <v>400</v>
@@ -73767,7 +73767,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -73795,41 +73795,41 @@
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L918" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M918" t="n">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="N918" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="O918" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="P918" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R918" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S918" t="n">
         <v>750</v>
       </c>
       <c r="T918" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="919">
@@ -73875,41 +73875,41 @@
       </c>
       <c r="K919" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M919" t="n">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="N919" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O919" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P919" t="n">
-        <v>10000</v>
+        <v>212857</v>
       </c>
       <c r="Q919" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R919" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S919" t="n">
-        <v>625</v>
+        <v>532</v>
       </c>
       <c r="T919" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="920">
@@ -73955,41 +73955,41 @@
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M920" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="N920" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="O920" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="P920" t="n">
-        <v>7000</v>
+        <v>256667</v>
       </c>
       <c r="Q920" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R920" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S920" t="n">
-        <v>438</v>
+        <v>642</v>
       </c>
       <c r="T920" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="921">
@@ -74035,25 +74035,25 @@
       </c>
       <c r="K921" t="inlineStr">
         <is>
-          <t>O'Henry</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M921" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N921" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O921" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P921" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
@@ -74066,7 +74066,7 @@
         </is>
       </c>
       <c r="S921" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T921" t="n">
         <v>400</v>
@@ -74115,7 +74115,7 @@
       </c>
       <c r="K922" t="inlineStr">
         <is>
-          <t>O'Henry</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L922" t="inlineStr">
@@ -74124,16 +74124,16 @@
         </is>
       </c>
       <c r="M922" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N922" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O922" t="n">
         <v>180000</v>
       </c>
       <c r="P922" t="n">
-        <v>180000</v>
+        <v>176316</v>
       </c>
       <c r="Q922" t="inlineStr">
         <is>
@@ -74142,11 +74142,11 @@
       </c>
       <c r="R922" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S922" t="n">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="T922" t="n">
         <v>400</v>
@@ -74195,25 +74195,25 @@
       </c>
       <c r="K923" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M923" t="n">
         <v>13</v>
       </c>
       <c r="N923" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O923" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P923" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q923" t="inlineStr">
         <is>
@@ -74226,7 +74226,7 @@
         </is>
       </c>
       <c r="S923" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="T923" t="n">
         <v>400</v>
@@ -74275,7 +74275,7 @@
       </c>
       <c r="K924" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L924" t="inlineStr">
@@ -74284,16 +74284,16 @@
         </is>
       </c>
       <c r="M924" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N924" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="O924" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="P924" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="Q924" t="inlineStr">
         <is>
@@ -74302,11 +74302,11 @@
       </c>
       <c r="R924" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S924" t="n">
-        <v>575</v>
+        <v>350</v>
       </c>
       <c r="T924" t="n">
         <v>400</v>
@@ -74327,7 +74327,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -74355,7 +74355,7 @@
       </c>
       <c r="K925" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L925" t="inlineStr">
@@ -74364,32 +74364,32 @@
         </is>
       </c>
       <c r="M925" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="N925" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="O925" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P925" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="Q925" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R925" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S925" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="T925" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="926">
@@ -74407,7 +74407,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -74435,41 +74435,41 @@
       </c>
       <c r="K926" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M926" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N926" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O926" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P926" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q926" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R926" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S926" t="n">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="T926" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="927">
@@ -74487,7 +74487,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -74515,41 +74515,41 @@
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M927" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N927" t="n">
-        <v>230000</v>
+        <v>7000</v>
       </c>
       <c r="O927" t="n">
-        <v>230000</v>
+        <v>7000</v>
       </c>
       <c r="P927" t="n">
-        <v>230000</v>
+        <v>7000</v>
       </c>
       <c r="Q927" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R927" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S927" t="n">
-        <v>575</v>
+        <v>438</v>
       </c>
       <c r="T927" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="928">
@@ -74567,7 +74567,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -74595,41 +74595,41 @@
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>O'Henry</t>
         </is>
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M928" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N928" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O928" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P928" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q928" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R928" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S928" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="T928" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="929">
@@ -74647,7 +74647,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -74675,25 +74675,25 @@
       </c>
       <c r="K929" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>O'Henry</t>
         </is>
       </c>
       <c r="L929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M929" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N929" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O929" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P929" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q929" t="inlineStr">
         <is>
@@ -74702,11 +74702,11 @@
       </c>
       <c r="R929" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S929" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="T929" t="n">
         <v>400</v>
@@ -74727,7 +74727,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -74755,25 +74755,25 @@
       </c>
       <c r="K930" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M930" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N930" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O930" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P930" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q930" t="inlineStr">
         <is>
@@ -74786,7 +74786,7 @@
         </is>
       </c>
       <c r="S930" t="n">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="T930" t="n">
         <v>400</v>
@@ -74807,7 +74807,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -74835,25 +74835,25 @@
       </c>
       <c r="K931" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M931" t="n">
         <v>8</v>
       </c>
       <c r="N931" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O931" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P931" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="Q931" t="inlineStr">
         <is>
@@ -74866,7 +74866,7 @@
         </is>
       </c>
       <c r="S931" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="T931" t="n">
         <v>400</v>
@@ -74887,7 +74887,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -74915,25 +74915,25 @@
       </c>
       <c r="K932" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M932" t="n">
         <v>10</v>
       </c>
       <c r="N932" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O932" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P932" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="Q932" t="inlineStr">
         <is>
@@ -74942,11 +74942,11 @@
       </c>
       <c r="R932" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S932" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T932" t="n">
         <v>400</v>
@@ -74967,7 +74967,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -74995,7 +74995,7 @@
       </c>
       <c r="K933" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L933" t="inlineStr">
@@ -75004,20 +75004,20 @@
         </is>
       </c>
       <c r="M933" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="N933" t="n">
-        <v>360000</v>
+        <v>15000</v>
       </c>
       <c r="O933" t="n">
-        <v>360000</v>
+        <v>15000</v>
       </c>
       <c r="P933" t="n">
-        <v>360000</v>
+        <v>15000</v>
       </c>
       <c r="Q933" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R933" t="inlineStr">
@@ -75026,10 +75026,10 @@
         </is>
       </c>
       <c r="S933" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="T933" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="934">
@@ -75047,7 +75047,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -75075,7 +75075,7 @@
       </c>
       <c r="K934" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L934" t="inlineStr">
@@ -75084,16 +75084,16 @@
         </is>
       </c>
       <c r="M934" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N934" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="O934" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="P934" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="Q934" t="inlineStr">
         <is>
@@ -75106,7 +75106,7 @@
         </is>
       </c>
       <c r="S934" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="T934" t="n">
         <v>400</v>
@@ -75127,7 +75127,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -75155,29 +75155,29 @@
       </c>
       <c r="K935" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M935" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N935" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="O935" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P935" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="Q935" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R935" t="inlineStr">
@@ -75186,10 +75186,10 @@
         </is>
       </c>
       <c r="S935" t="n">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="T935" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="936">
@@ -75207,68 +75207,628 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E936" t="n">
+        <v>13</v>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G936" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I936" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J936" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M936" t="n">
+        <v>13</v>
+      </c>
+      <c r="N936" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O936" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P936" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Q936" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R936" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S936" t="n">
+        <v>500</v>
+      </c>
+      <c r="T936" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>6</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D937" s="2" t="n">
         <v>44554</v>
       </c>
-      <c r="E936" t="n">
-        <v>13</v>
-      </c>
-      <c r="F936" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G936" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I936" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J936" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K936" t="inlineStr">
+      <c r="E937" t="n">
+        <v>13</v>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G937" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I937" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J937" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M937" t="n">
+        <v>5</v>
+      </c>
+      <c r="N937" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O937" t="n">
+        <v>280000</v>
+      </c>
+      <c r="P937" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q937" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R937" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S937" t="n">
+        <v>700</v>
+      </c>
+      <c r="T937" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>6</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D938" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E938" t="n">
+        <v>13</v>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G938" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I938" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J938" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M938" t="n">
+        <v>8</v>
+      </c>
+      <c r="N938" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O938" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P938" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q938" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R938" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S938" t="n">
+        <v>650</v>
+      </c>
+      <c r="T938" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>6</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D939" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E939" t="n">
+        <v>13</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G939" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I939" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J939" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M939" t="n">
+        <v>10</v>
+      </c>
+      <c r="N939" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O939" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P939" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q939" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R939" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S939" t="n">
+        <v>600</v>
+      </c>
+      <c r="T939" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>6</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D940" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E940" t="n">
+        <v>13</v>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G940" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I940" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J940" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M940" t="n">
+        <v>4</v>
+      </c>
+      <c r="N940" t="n">
+        <v>360000</v>
+      </c>
+      <c r="O940" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P940" t="n">
+        <v>360000</v>
+      </c>
+      <c r="Q940" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R940" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S940" t="n">
+        <v>900</v>
+      </c>
+      <c r="T940" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>6</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D941" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E941" t="n">
+        <v>13</v>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G941" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I941" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J941" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L941" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M941" t="n">
+        <v>6</v>
+      </c>
+      <c r="N941" t="n">
+        <v>310000</v>
+      </c>
+      <c r="O941" t="n">
+        <v>310000</v>
+      </c>
+      <c r="P941" t="n">
+        <v>310000</v>
+      </c>
+      <c r="Q941" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R941" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S941" t="n">
+        <v>775</v>
+      </c>
+      <c r="T941" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>6</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D942" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E942" t="n">
+        <v>13</v>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G942" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I942" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J942" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L942" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M942" t="n">
+        <v>8</v>
+      </c>
+      <c r="N942" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O942" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P942" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q942" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R942" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S942" t="n">
+        <v>650</v>
+      </c>
+      <c r="T942" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>6</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D943" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E943" t="n">
+        <v>13</v>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G943" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I943" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J943" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K943" t="inlineStr">
         <is>
           <t>Toscana</t>
         </is>
       </c>
-      <c r="L936" t="inlineStr">
+      <c r="L943" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M936" t="n">
+      <c r="M943" t="n">
         <v>10</v>
       </c>
-      <c r="N936" t="n">
+      <c r="N943" t="n">
         <v>370000</v>
       </c>
-      <c r="O936" t="n">
+      <c r="O943" t="n">
         <v>380000</v>
       </c>
-      <c r="P936" t="n">
+      <c r="P943" t="n">
         <v>376000</v>
       </c>
-      <c r="Q936" t="inlineStr">
+      <c r="Q943" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R936" t="inlineStr">
+      <c r="R943" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S936" t="n">
+      <c r="S943" t="n">
         <v>940</v>
       </c>
-      <c r="T936" t="n">
+      <c r="T943" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T978"/>
+  <dimension ref="A1:T987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76807,7 +76807,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -76835,7 +76835,7 @@
       </c>
       <c r="K956" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L956" t="inlineStr">
@@ -76844,20 +76844,20 @@
         </is>
       </c>
       <c r="M956" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N956" t="n">
-        <v>320000</v>
+        <v>20000</v>
       </c>
       <c r="O956" t="n">
-        <v>320000</v>
+        <v>20000</v>
       </c>
       <c r="P956" t="n">
-        <v>320000</v>
+        <v>20000</v>
       </c>
       <c r="Q956" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R956" t="inlineStr">
@@ -76866,10 +76866,10 @@
         </is>
       </c>
       <c r="S956" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T956" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="957">
@@ -76887,7 +76887,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -76915,7 +76915,7 @@
       </c>
       <c r="K957" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L957" t="inlineStr">
@@ -76924,20 +76924,20 @@
         </is>
       </c>
       <c r="M957" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N957" t="n">
-        <v>280000</v>
+        <v>16000</v>
       </c>
       <c r="O957" t="n">
-        <v>280000</v>
+        <v>16000</v>
       </c>
       <c r="P957" t="n">
-        <v>280000</v>
+        <v>16000</v>
       </c>
       <c r="Q957" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R957" t="inlineStr">
@@ -76946,10 +76946,10 @@
         </is>
       </c>
       <c r="S957" t="n">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="T957" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="958">
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -76995,7 +76995,7 @@
       </c>
       <c r="K958" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L958" t="inlineStr">
@@ -77004,20 +77004,20 @@
         </is>
       </c>
       <c r="M958" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="N958" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="O958" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P958" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R958" t="inlineStr">
@@ -77026,10 +77026,10 @@
         </is>
       </c>
       <c r="S958" t="n">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="T958" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="959">
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -77075,25 +77075,25 @@
       </c>
       <c r="K959" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L959" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M959" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N959" t="n">
-        <v>380000</v>
+        <v>280000</v>
       </c>
       <c r="O959" t="n">
-        <v>380000</v>
+        <v>280000</v>
       </c>
       <c r="P959" t="n">
-        <v>380000</v>
+        <v>280000</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
@@ -77106,7 +77106,7 @@
         </is>
       </c>
       <c r="S959" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="T959" t="n">
         <v>400</v>
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -77155,25 +77155,25 @@
       </c>
       <c r="K960" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M960" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N960" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O960" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P960" t="n">
-        <v>307895</v>
+        <v>250000</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
@@ -77186,7 +77186,7 @@
         </is>
       </c>
       <c r="S960" t="n">
-        <v>770</v>
+        <v>625</v>
       </c>
       <c r="T960" t="n">
         <v>400</v>
@@ -77207,7 +77207,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -77235,25 +77235,25 @@
       </c>
       <c r="K961" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M961" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N961" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O961" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P961" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
@@ -77266,7 +77266,7 @@
         </is>
       </c>
       <c r="S961" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T961" t="n">
         <v>400</v>
@@ -77287,7 +77287,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -77315,7 +77315,7 @@
       </c>
       <c r="K962" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L962" t="inlineStr">
@@ -77324,20 +77324,20 @@
         </is>
       </c>
       <c r="M962" t="n">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="N962" t="n">
-        <v>380000</v>
+        <v>14000</v>
       </c>
       <c r="O962" t="n">
-        <v>400000</v>
+        <v>14000</v>
       </c>
       <c r="P962" t="n">
-        <v>391111</v>
+        <v>14000</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R962" t="inlineStr">
@@ -77346,10 +77346,10 @@
         </is>
       </c>
       <c r="S962" t="n">
-        <v>978</v>
+        <v>933</v>
       </c>
       <c r="T962" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="963">
@@ -77367,7 +77367,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -77395,25 +77395,25 @@
       </c>
       <c r="K963" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M963" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N963" t="n">
-        <v>360000</v>
+        <v>230000</v>
       </c>
       <c r="O963" t="n">
-        <v>360000</v>
+        <v>230000</v>
       </c>
       <c r="P963" t="n">
-        <v>360000</v>
+        <v>230000</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
@@ -77422,11 +77422,11 @@
       </c>
       <c r="R963" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S963" t="n">
-        <v>900</v>
+        <v>575</v>
       </c>
       <c r="T963" t="n">
         <v>400</v>
@@ -77447,7 +77447,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -77475,7 +77475,7 @@
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L964" t="inlineStr">
@@ -77484,32 +77484,32 @@
         </is>
       </c>
       <c r="M964" t="n">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="N964" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="O964" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="P964" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R964" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S964" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T964" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="965">
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -77555,25 +77555,25 @@
       </c>
       <c r="K965" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M965" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N965" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="O965" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="P965" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77586,7 +77586,7 @@
         </is>
       </c>
       <c r="S965" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T965" t="n">
         <v>400</v>
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -77635,25 +77635,25 @@
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N966" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O966" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P966" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77666,7 +77666,7 @@
         </is>
       </c>
       <c r="S966" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T966" t="n">
         <v>400</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -77715,25 +77715,25 @@
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M967" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N967" t="n">
-        <v>480000</v>
+        <v>260000</v>
       </c>
       <c r="O967" t="n">
-        <v>480000</v>
+        <v>260000</v>
       </c>
       <c r="P967" t="n">
-        <v>480000</v>
+        <v>260000</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77746,7 +77746,7 @@
         </is>
       </c>
       <c r="S967" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T967" t="n">
         <v>400</v>
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -77800,20 +77800,20 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M968" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N968" t="n">
-        <v>450000</v>
+        <v>380000</v>
       </c>
       <c r="O968" t="n">
-        <v>450000</v>
+        <v>380000</v>
       </c>
       <c r="P968" t="n">
-        <v>450000</v>
+        <v>380000</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77826,7 +77826,7 @@
         </is>
       </c>
       <c r="S968" t="n">
-        <v>1125</v>
+        <v>950</v>
       </c>
       <c r="T968" t="n">
         <v>400</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -77875,25 +77875,25 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M969" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N969" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="O969" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="P969" t="n">
-        <v>420000</v>
+        <v>307895</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77902,11 +77902,11 @@
       </c>
       <c r="R969" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S969" t="n">
-        <v>1050</v>
+        <v>770</v>
       </c>
       <c r="T969" t="n">
         <v>400</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -77955,25 +77955,25 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M970" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N970" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O970" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="P970" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>975</v>
+        <v>675</v>
       </c>
       <c r="T970" t="n">
         <v>400</v>
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -78035,25 +78035,25 @@
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M971" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N971" t="n">
-        <v>350000</v>
+        <v>380000</v>
       </c>
       <c r="O971" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="P971" t="n">
-        <v>350000</v>
+        <v>391111</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78062,11 +78062,11 @@
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>875</v>
+        <v>978</v>
       </c>
       <c r="T971" t="n">
         <v>400</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -78115,29 +78115,29 @@
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="N972" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="O972" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="P972" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R972" t="inlineStr">
@@ -78146,10 +78146,10 @@
         </is>
       </c>
       <c r="S972" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T972" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="973">
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -78195,41 +78195,41 @@
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M973" t="n">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="N973" t="n">
-        <v>12000</v>
+        <v>320000</v>
       </c>
       <c r="O973" t="n">
-        <v>12000</v>
+        <v>320000</v>
       </c>
       <c r="P973" t="n">
-        <v>12000</v>
+        <v>320000</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R973" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S973" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T973" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="974">
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -78275,29 +78275,29 @@
       </c>
       <c r="K974" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M974" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N974" t="n">
-        <v>14000</v>
+        <v>360000</v>
       </c>
       <c r="O974" t="n">
-        <v>14000</v>
+        <v>360000</v>
       </c>
       <c r="P974" t="n">
-        <v>14000</v>
+        <v>360000</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R974" t="inlineStr">
@@ -78306,10 +78306,10 @@
         </is>
       </c>
       <c r="S974" t="n">
-        <v>875</v>
+        <v>900</v>
       </c>
       <c r="T974" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="975">
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -78355,25 +78355,25 @@
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N975" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="O975" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P975" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78386,7 +78386,7 @@
         </is>
       </c>
       <c r="S975" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T975" t="n">
         <v>400</v>
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -78435,7 +78435,7 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L976" t="inlineStr">
@@ -78444,32 +78444,32 @@
         </is>
       </c>
       <c r="M976" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N976" t="n">
-        <v>10000</v>
+        <v>480000</v>
       </c>
       <c r="O976" t="n">
-        <v>10000</v>
+        <v>480000</v>
       </c>
       <c r="P976" t="n">
-        <v>10000</v>
+        <v>480000</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="T976" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="977">
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -78515,29 +78515,29 @@
       </c>
       <c r="K977" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="N977" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="O977" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="P977" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R977" t="inlineStr">
@@ -78546,10 +78546,10 @@
         </is>
       </c>
       <c r="S977" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T977" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="978">
@@ -78567,68 +78567,788 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E978" t="n">
+        <v>13</v>
+      </c>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G978" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I978" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J978" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>Polar King</t>
+        </is>
+      </c>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M978" t="n">
+        <v>18</v>
+      </c>
+      <c r="N978" t="n">
+        <v>420000</v>
+      </c>
+      <c r="O978" t="n">
+        <v>420000</v>
+      </c>
+      <c r="P978" t="n">
+        <v>420000</v>
+      </c>
+      <c r="Q978" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R978" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S978" t="n">
+        <v>1050</v>
+      </c>
+      <c r="T978" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>6</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D979" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E979" t="n">
+        <v>13</v>
+      </c>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G979" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I979" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J979" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>Polar King</t>
+        </is>
+      </c>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M979" t="n">
+        <v>23</v>
+      </c>
+      <c r="N979" t="n">
+        <v>390000</v>
+      </c>
+      <c r="O979" t="n">
+        <v>390000</v>
+      </c>
+      <c r="P979" t="n">
+        <v>390000</v>
+      </c>
+      <c r="Q979" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R979" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S979" t="n">
+        <v>975</v>
+      </c>
+      <c r="T979" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>6</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D980" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E980" t="n">
+        <v>13</v>
+      </c>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G980" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I980" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J980" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>Polar King</t>
+        </is>
+      </c>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M980" t="n">
+        <v>20</v>
+      </c>
+      <c r="N980" t="n">
+        <v>350000</v>
+      </c>
+      <c r="O980" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P980" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q980" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R980" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S980" t="n">
+        <v>875</v>
+      </c>
+      <c r="T980" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>6</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D981" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E978" t="n">
-        <v>13</v>
-      </c>
-      <c r="F978" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G978" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I978" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J978" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K978" t="inlineStr">
+      <c r="E981" t="n">
+        <v>13</v>
+      </c>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G981" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I981" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J981" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K981" t="inlineStr">
         <is>
           <t>Florida King</t>
         </is>
       </c>
-      <c r="L978" t="inlineStr">
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M981" t="n">
+        <v>180</v>
+      </c>
+      <c r="N981" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O981" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P981" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q981" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R981" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S981" t="n">
+        <v>750</v>
+      </c>
+      <c r="T981" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>6</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D982" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E982" t="n">
+        <v>13</v>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G982" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I982" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J982" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M982" t="n">
+        <v>175</v>
+      </c>
+      <c r="N982" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O982" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P982" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q982" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R982" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S982" t="n">
+        <v>750</v>
+      </c>
+      <c r="T982" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>6</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D983" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E983" t="n">
+        <v>13</v>
+      </c>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G983" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I983" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J983" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M983" t="n">
+        <v>50</v>
+      </c>
+      <c r="N983" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O983" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P983" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q983" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R983" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S983" t="n">
+        <v>875</v>
+      </c>
+      <c r="T983" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>6</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D984" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E984" t="n">
+        <v>13</v>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G984" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I984" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J984" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M984" t="n">
+        <v>25</v>
+      </c>
+      <c r="N984" t="n">
+        <v>350000</v>
+      </c>
+      <c r="O984" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P984" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q984" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R984" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S984" t="n">
+        <v>875</v>
+      </c>
+      <c r="T984" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>6</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D985" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E985" t="n">
+        <v>13</v>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G985" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I985" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J985" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M985" t="n">
+        <v>150</v>
+      </c>
+      <c r="N985" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O985" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P985" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q985" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R985" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S985" t="n">
+        <v>625</v>
+      </c>
+      <c r="T985" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>6</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D986" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E986" t="n">
+        <v>13</v>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G986" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I986" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J986" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M986" t="n">
+        <v>180</v>
+      </c>
+      <c r="N986" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O986" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P986" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q986" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R986" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S986" t="n">
+        <v>625</v>
+      </c>
+      <c r="T986" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>6</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D987" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E987" t="n">
+        <v>13</v>
+      </c>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G987" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I987" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J987" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L987" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M978" t="n">
+      <c r="M987" t="n">
         <v>100</v>
       </c>
-      <c r="N978" t="n">
+      <c r="N987" t="n">
         <v>8000</v>
       </c>
-      <c r="O978" t="n">
+      <c r="O987" t="n">
         <v>8000</v>
       </c>
-      <c r="P978" t="n">
+      <c r="P987" t="n">
         <v>8000</v>
       </c>
-      <c r="Q978" t="inlineStr">
+      <c r="Q987" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R978" t="inlineStr">
+      <c r="R987" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S978" t="n">
+      <c r="S987" t="n">
         <v>500</v>
       </c>
-      <c r="T978" t="n">
+      <c r="T987" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1068"/>
+  <dimension ref="A1:T1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -79235,7 +79235,7 @@
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
@@ -79244,32 +79244,32 @@
         </is>
       </c>
       <c r="M986" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N986" t="n">
-        <v>20000</v>
+        <v>350000</v>
       </c>
       <c r="O986" t="n">
-        <v>20000</v>
+        <v>350000</v>
       </c>
       <c r="P986" t="n">
-        <v>20000</v>
+        <v>350000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>1333</v>
+        <v>875</v>
       </c>
       <c r="T986" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="987">
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79315,41 +79315,41 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M987" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="N987" t="n">
-        <v>18000</v>
+        <v>380000</v>
       </c>
       <c r="O987" t="n">
-        <v>18000</v>
+        <v>380000</v>
       </c>
       <c r="P987" t="n">
-        <v>18000</v>
+        <v>380000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="T987" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="988">
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79395,41 +79395,41 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N988" t="n">
-        <v>15000</v>
+        <v>300000</v>
       </c>
       <c r="O988" t="n">
-        <v>15000</v>
+        <v>300000</v>
       </c>
       <c r="P988" t="n">
-        <v>15000</v>
+        <v>300000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T988" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="989">
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79475,7 +79475,7 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
@@ -79484,32 +79484,32 @@
         </is>
       </c>
       <c r="M989" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N989" t="n">
-        <v>480000</v>
+        <v>330000</v>
       </c>
       <c r="O989" t="n">
-        <v>480000</v>
+        <v>330000</v>
       </c>
       <c r="P989" t="n">
-        <v>480000</v>
+        <v>330000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>1143</v>
+        <v>825</v>
       </c>
       <c r="T989" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="990">
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79555,7 +79555,7 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
@@ -79564,32 +79564,32 @@
         </is>
       </c>
       <c r="M990" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N990" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="O990" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="P990" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>1071</v>
+        <v>700</v>
       </c>
       <c r="T990" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="991">
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79635,7 +79635,7 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
@@ -79644,32 +79644,32 @@
         </is>
       </c>
       <c r="M991" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N991" t="n">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="O991" t="n">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="P991" t="n">
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T991" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="992">
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -79715,7 +79715,7 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
@@ -79724,32 +79724,32 @@
         </is>
       </c>
       <c r="M992" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N992" t="n">
-        <v>350000</v>
+        <v>18000</v>
       </c>
       <c r="O992" t="n">
-        <v>370000</v>
+        <v>18000</v>
       </c>
       <c r="P992" t="n">
-        <v>359091</v>
+        <v>18000</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>898</v>
+        <v>1200</v>
       </c>
       <c r="T992" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="993">
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79795,7 +79795,7 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
@@ -79804,32 +79804,32 @@
         </is>
       </c>
       <c r="M993" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N993" t="n">
-        <v>330000</v>
+        <v>15000</v>
       </c>
       <c r="O993" t="n">
-        <v>330000</v>
+        <v>15000</v>
       </c>
       <c r="P993" t="n">
-        <v>330000</v>
+        <v>15000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R993" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S993" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="T993" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="994">
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79875,7 +79875,7 @@
       </c>
       <c r="K994" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L994" t="inlineStr">
@@ -79884,32 +79884,32 @@
         </is>
       </c>
       <c r="M994" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N994" t="n">
-        <v>380000</v>
+        <v>480000</v>
       </c>
       <c r="O994" t="n">
-        <v>380000</v>
+        <v>480000</v>
       </c>
       <c r="P994" t="n">
-        <v>380000</v>
+        <v>480000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R994" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S994" t="n">
-        <v>950</v>
+        <v>1143</v>
       </c>
       <c r="T994" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
     </row>
     <row r="995">
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79955,7 +79955,7 @@
       </c>
       <c r="K995" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L995" t="inlineStr">
@@ -79964,32 +79964,32 @@
         </is>
       </c>
       <c r="M995" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N995" t="n">
-        <v>360000</v>
+        <v>450000</v>
       </c>
       <c r="O995" t="n">
-        <v>360000</v>
+        <v>450000</v>
       </c>
       <c r="P995" t="n">
-        <v>360000</v>
+        <v>450000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R995" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S995" t="n">
-        <v>900</v>
+        <v>1071</v>
       </c>
       <c r="T995" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
     </row>
     <row r="996">
@@ -80035,25 +80035,25 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N996" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="O996" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="P996" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80062,11 +80062,11 @@
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T996" t="n">
         <v>400</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80115,7 +80115,7 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
@@ -80124,16 +80124,16 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="N997" t="n">
-        <v>150000</v>
+        <v>350000</v>
       </c>
       <c r="O997" t="n">
-        <v>150000</v>
+        <v>370000</v>
       </c>
       <c r="P997" t="n">
-        <v>150000</v>
+        <v>359091</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80146,7 +80146,7 @@
         </is>
       </c>
       <c r="S997" t="n">
-        <v>375</v>
+        <v>898</v>
       </c>
       <c r="T997" t="n">
         <v>400</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80195,7 +80195,7 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
@@ -80204,16 +80204,16 @@
         </is>
       </c>
       <c r="M998" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N998" t="n">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="O998" t="n">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="P998" t="n">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80226,7 +80226,7 @@
         </is>
       </c>
       <c r="S998" t="n">
-        <v>300</v>
+        <v>825</v>
       </c>
       <c r="T998" t="n">
         <v>400</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80280,20 +80280,20 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N999" t="n">
-        <v>100000</v>
+        <v>380000</v>
       </c>
       <c r="O999" t="n">
-        <v>100000</v>
+        <v>380000</v>
       </c>
       <c r="P999" t="n">
-        <v>100000</v>
+        <v>380000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="T999" t="n">
         <v>400</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80355,41 +80355,41 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="N1000" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="O1000" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="P1000" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T1000" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1001">
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80435,25 +80435,25 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1001" t="n">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="O1001" t="n">
-        <v>170000</v>
+        <v>320000</v>
       </c>
       <c r="P1001" t="n">
-        <v>163846</v>
+        <v>320000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>410</v>
+        <v>800</v>
       </c>
       <c r="T1001" t="n">
         <v>400</v>
@@ -80515,7 +80515,7 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
@@ -80524,32 +80524,32 @@
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="N1002" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O1002" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P1002" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="T1002" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1003">
@@ -80595,7 +80595,7 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
@@ -80607,13 +80607,13 @@
         <v>8</v>
       </c>
       <c r="N1003" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O1003" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P1003" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="T1003" t="n">
         <v>400</v>
@@ -80675,41 +80675,41 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="N1004" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="O1004" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="P1004" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>438</v>
+        <v>250</v>
       </c>
       <c r="T1004" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1005">
@@ -80755,7 +80755,7 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
@@ -80764,32 +80764,32 @@
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="N1005" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="O1005" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P1005" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T1005" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1006">
@@ -80835,41 +80835,41 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="N1006" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="O1006" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="P1006" t="n">
-        <v>12000</v>
+        <v>163846</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>750</v>
+        <v>410</v>
       </c>
       <c r="T1006" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1007">
@@ -80915,7 +80915,7 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
@@ -80924,32 +80924,32 @@
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="N1007" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O1007" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P1007" t="n">
-        <v>218710</v>
+        <v>10000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="T1007" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1008">
@@ -80995,41 +80995,41 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="N1008" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="O1008" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="P1008" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="T1008" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1009">
@@ -81075,7 +81075,7 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
@@ -81084,32 +81084,32 @@
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N1009" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O1009" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="P1009" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T1009" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1010">
@@ -81160,24 +81160,24 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N1010" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O1010" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P1010" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1010" t="inlineStr">
@@ -81189,7 +81189,7 @@
         <v>500</v>
       </c>
       <c r="T1010" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1011">
@@ -81235,16 +81235,16 @@
       </c>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N1011" t="n">
         <v>12000</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81315,7 +81315,7 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
@@ -81324,16 +81324,16 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N1012" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1012" t="n">
         <v>260000</v>
       </c>
-      <c r="O1012" t="n">
-        <v>270000</v>
-      </c>
       <c r="P1012" t="n">
-        <v>265000</v>
+        <v>218710</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81346,7 +81346,7 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>662</v>
+        <v>547</v>
       </c>
       <c r="T1012" t="n">
         <v>400</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81395,29 +81395,29 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="N1013" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O1013" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="P1013" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1013" t="inlineStr">
@@ -81426,10 +81426,10 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T1013" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1014">
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81475,29 +81475,29 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="N1014" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="O1014" t="n">
-        <v>16000</v>
+        <v>200000</v>
       </c>
       <c r="P1014" t="n">
-        <v>15455</v>
+        <v>200000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1014" t="inlineStr">
@@ -81506,10 +81506,10 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>859</v>
+        <v>500</v>
       </c>
       <c r="T1014" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1015">
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81555,29 +81555,29 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N1015" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1015" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P1015" t="n">
-        <v>12333</v>
+        <v>8000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
@@ -81586,10 +81586,10 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>685</v>
+        <v>500</v>
       </c>
       <c r="T1015" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1016">
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81635,29 +81635,29 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N1016" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O1016" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P1016" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1016" t="inlineStr">
@@ -81666,10 +81666,10 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="T1016" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1017">
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81720,36 +81720,36 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N1017" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O1017" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="P1017" t="n">
-        <v>14444</v>
+        <v>265000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>903</v>
+        <v>662</v>
       </c>
       <c r="T1017" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1018">
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81800,36 +81800,36 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N1018" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="O1018" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P1018" t="n">
-        <v>9400</v>
+        <v>230000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="T1018" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1019">
@@ -81875,41 +81875,41 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N1019" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O1019" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P1019" t="n">
-        <v>7714</v>
+        <v>15455</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>482</v>
+        <v>859</v>
       </c>
       <c r="T1019" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1020">
@@ -81955,7 +81955,7 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
@@ -81964,20 +81964,20 @@
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N1020" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O1020" t="n">
-        <v>260000</v>
+        <v>13000</v>
       </c>
       <c r="P1020" t="n">
-        <v>255000</v>
+        <v>12333</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1020" t="inlineStr">
@@ -81986,10 +81986,10 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>638</v>
+        <v>685</v>
       </c>
       <c r="T1020" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1021">
@@ -82035,7 +82035,7 @@
       </c>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L1021" t="inlineStr">
@@ -82044,20 +82044,20 @@
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="N1021" t="n">
-        <v>210000</v>
+        <v>8000</v>
       </c>
       <c r="O1021" t="n">
-        <v>210000</v>
+        <v>8000</v>
       </c>
       <c r="P1021" t="n">
-        <v>210000</v>
+        <v>8000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
@@ -82066,10 +82066,10 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>525</v>
+        <v>444</v>
       </c>
       <c r="T1021" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1022">
@@ -82115,29 +82115,29 @@
       </c>
       <c r="K1022" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="N1022" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="O1022" t="n">
-        <v>170000</v>
+        <v>15000</v>
       </c>
       <c r="P1022" t="n">
-        <v>170000</v>
+        <v>14444</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1022" t="inlineStr">
@@ -82146,10 +82146,10 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>425</v>
+        <v>903</v>
       </c>
       <c r="T1022" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1023">
@@ -82195,7 +82195,7 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
@@ -82204,32 +82204,32 @@
         </is>
       </c>
       <c r="M1023" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>9400</v>
+      </c>
+      <c r="Q1023" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1023" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1023" t="n">
+        <v>588</v>
+      </c>
+      <c r="T1023" t="n">
         <v>16</v>
-      </c>
-      <c r="N1023" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O1023" t="n">
-        <v>150000</v>
-      </c>
-      <c r="P1023" t="n">
-        <v>150000</v>
-      </c>
-      <c r="Q1023" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1023" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S1023" t="n">
-        <v>375</v>
-      </c>
-      <c r="T1023" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="1024">
@@ -82275,7 +82275,7 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
@@ -82284,20 +82284,20 @@
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="N1024" t="n">
-        <v>120000</v>
+        <v>7500</v>
       </c>
       <c r="O1024" t="n">
-        <v>120000</v>
+        <v>8000</v>
       </c>
       <c r="P1024" t="n">
-        <v>120000</v>
+        <v>7714</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1024" t="inlineStr">
@@ -82306,10 +82306,10 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="T1024" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1025">
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -82355,7 +82355,7 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
@@ -82364,16 +82364,16 @@
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N1025" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O1025" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P1025" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82386,7 +82386,7 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="T1025" t="n">
         <v>400</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82435,25 +82435,25 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1026" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="O1026" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="P1026" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82462,11 +82462,11 @@
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="T1026" t="n">
         <v>400</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82515,25 +82515,25 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N1027" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O1027" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P1027" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82542,11 +82542,11 @@
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T1027" t="n">
         <v>400</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82595,25 +82595,25 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N1028" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="O1028" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P1028" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82626,7 +82626,7 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="T1028" t="n">
         <v>400</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82675,7 +82675,7 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
@@ -82684,16 +82684,16 @@
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N1029" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O1029" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P1029" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82702,11 +82702,11 @@
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="T1029" t="n">
         <v>400</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82755,25 +82755,25 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1030" t="n">
-        <v>80000</v>
+        <v>220000</v>
       </c>
       <c r="O1030" t="n">
-        <v>80000</v>
+        <v>220000</v>
       </c>
       <c r="P1030" t="n">
-        <v>80000</v>
+        <v>220000</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82782,11 +82782,11 @@
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="T1030" t="n">
         <v>400</v>
@@ -82835,25 +82835,25 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N1031" t="n">
-        <v>380000</v>
+        <v>170000</v>
       </c>
       <c r="O1031" t="n">
-        <v>380000</v>
+        <v>170000</v>
       </c>
       <c r="P1031" t="n">
-        <v>380000</v>
+        <v>170000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82866,7 +82866,7 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>950</v>
+        <v>425</v>
       </c>
       <c r="T1031" t="n">
         <v>400</v>
@@ -82915,7 +82915,7 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
@@ -82924,16 +82924,16 @@
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N1032" t="n">
-        <v>350000</v>
+        <v>160000</v>
       </c>
       <c r="O1032" t="n">
-        <v>350000</v>
+        <v>160000</v>
       </c>
       <c r="P1032" t="n">
-        <v>350000</v>
+        <v>160000</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82942,11 +82942,11 @@
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>875</v>
+        <v>400</v>
       </c>
       <c r="T1032" t="n">
         <v>400</v>
@@ -82995,25 +82995,25 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N1033" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="O1033" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P1033" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83022,11 +83022,11 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="T1033" t="n">
         <v>400</v>
@@ -83075,25 +83075,25 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N1034" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="O1034" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="P1034" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83155,25 +83155,25 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N1035" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="O1035" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="P1035" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83182,11 +83182,11 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="T1035" t="n">
         <v>400</v>
@@ -83235,25 +83235,25 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N1036" t="n">
-        <v>140000</v>
+        <v>380000</v>
       </c>
       <c r="O1036" t="n">
-        <v>140000</v>
+        <v>380000</v>
       </c>
       <c r="P1036" t="n">
-        <v>140000</v>
+        <v>380000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="T1036" t="n">
         <v>400</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83315,41 +83315,41 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="N1037" t="n">
-        <v>20000</v>
+        <v>350000</v>
       </c>
       <c r="O1037" t="n">
-        <v>20000</v>
+        <v>350000</v>
       </c>
       <c r="P1037" t="n">
-        <v>20000</v>
+        <v>350000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>1111</v>
+        <v>875</v>
       </c>
       <c r="T1037" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1038">
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83395,7 +83395,7 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
@@ -83404,20 +83404,20 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="N1038" t="n">
-        <v>16000</v>
+        <v>280000</v>
       </c>
       <c r="O1038" t="n">
-        <v>16000</v>
+        <v>280000</v>
       </c>
       <c r="P1038" t="n">
-        <v>16000</v>
+        <v>280000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
@@ -83426,10 +83426,10 @@
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T1038" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1039">
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83475,29 +83475,29 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="N1039" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O1039" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P1039" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
@@ -83506,10 +83506,10 @@
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="T1039" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1040">
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83555,7 +83555,7 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
@@ -83564,16 +83564,16 @@
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N1040" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="O1040" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="P1040" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83586,7 +83586,7 @@
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>700</v>
+        <v>425</v>
       </c>
       <c r="T1040" t="n">
         <v>400</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83635,7 +83635,7 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
@@ -83644,16 +83644,16 @@
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N1041" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="O1041" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="P1041" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83666,7 +83666,7 @@
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="T1041" t="n">
         <v>400</v>
@@ -83715,29 +83715,29 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N1042" t="n">
-        <v>250000</v>
+        <v>20000</v>
       </c>
       <c r="O1042" t="n">
-        <v>250000</v>
+        <v>20000</v>
       </c>
       <c r="P1042" t="n">
-        <v>250000</v>
+        <v>20000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
@@ -83746,10 +83746,10 @@
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>625</v>
+        <v>1111</v>
       </c>
       <c r="T1042" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1043">
@@ -83795,7 +83795,7 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
@@ -83804,20 +83804,20 @@
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="N1043" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O1043" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P1043" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1043" t="inlineStr">
@@ -83826,10 +83826,10 @@
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>933</v>
+        <v>889</v>
       </c>
       <c r="T1043" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1044">
@@ -83875,7 +83875,7 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
@@ -83884,20 +83884,20 @@
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="N1044" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O1044" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P1044" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
@@ -83906,10 +83906,10 @@
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>575</v>
+        <v>667</v>
       </c>
       <c r="T1044" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1045">
@@ -83955,29 +83955,29 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="N1045" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="O1045" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="P1045" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
@@ -83986,10 +83986,10 @@
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T1045" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1046">
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84035,25 +84035,25 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N1046" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O1046" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P1046" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84066,7 +84066,7 @@
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="T1046" t="n">
         <v>400</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84115,7 +84115,7 @@
       </c>
       <c r="K1047" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L1047" t="inlineStr">
@@ -84124,16 +84124,16 @@
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N1047" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O1047" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P1047" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84146,7 +84146,7 @@
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="T1047" t="n">
         <v>400</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84195,29 +84195,29 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="N1048" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="O1048" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="P1048" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1048" t="inlineStr">
@@ -84226,10 +84226,10 @@
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>650</v>
+        <v>933</v>
       </c>
       <c r="T1048" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1049">
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84275,25 +84275,25 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N1049" t="n">
-        <v>380000</v>
+        <v>230000</v>
       </c>
       <c r="O1049" t="n">
-        <v>380000</v>
+        <v>230000</v>
       </c>
       <c r="P1049" t="n">
-        <v>380000</v>
+        <v>230000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="T1049" t="n">
         <v>400</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84355,29 +84355,29 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="N1050" t="n">
-        <v>300000</v>
+        <v>11000</v>
       </c>
       <c r="O1050" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="P1050" t="n">
-        <v>307895</v>
+        <v>11000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1050" t="inlineStr">
@@ -84386,10 +84386,10 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>770</v>
+        <v>733</v>
       </c>
       <c r="T1050" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1051">
@@ -84435,25 +84435,25 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N1051" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O1051" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P1051" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="T1051" t="n">
         <v>400</v>
@@ -84515,7 +84515,7 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
@@ -84524,16 +84524,16 @@
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N1052" t="n">
-        <v>380000</v>
+        <v>280000</v>
       </c>
       <c r="O1052" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="P1052" t="n">
-        <v>391111</v>
+        <v>280000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>978</v>
+        <v>700</v>
       </c>
       <c r="T1052" t="n">
         <v>400</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84600,20 +84600,20 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1053" t="n">
         <v>25</v>
       </c>
       <c r="N1053" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="O1053" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="P1053" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84622,11 +84622,11 @@
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="T1053" t="n">
         <v>400</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84675,25 +84675,25 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N1054" t="n">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="O1054" t="n">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="P1054" t="n">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84702,11 +84702,11 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T1054" t="n">
         <v>400</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84755,7 +84755,7 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
@@ -84764,16 +84764,16 @@
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N1055" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="O1055" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="P1055" t="n">
-        <v>360000</v>
+        <v>307895</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>900</v>
+        <v>770</v>
       </c>
       <c r="T1055" t="n">
         <v>400</v>
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -84835,7 +84835,7 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
@@ -84844,16 +84844,16 @@
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N1056" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O1056" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P1056" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="T1056" t="n">
         <v>400</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84915,7 +84915,7 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
@@ -84924,16 +84924,16 @@
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N1057" t="n">
-        <v>480000</v>
+        <v>380000</v>
       </c>
       <c r="O1057" t="n">
-        <v>480000</v>
+        <v>400000</v>
       </c>
       <c r="P1057" t="n">
-        <v>480000</v>
+        <v>391111</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84946,7 +84946,7 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>1200</v>
+        <v>978</v>
       </c>
       <c r="T1057" t="n">
         <v>400</v>
@@ -84995,25 +84995,25 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N1058" t="n">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="O1058" t="n">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="P1058" t="n">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85022,11 +85022,11 @@
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>1125</v>
+        <v>900</v>
       </c>
       <c r="T1058" t="n">
         <v>400</v>
@@ -85075,25 +85075,25 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N1059" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="O1059" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="P1059" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T1059" t="n">
         <v>400</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,16 +85164,16 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1060" t="n">
-        <v>390000</v>
+        <v>360000</v>
       </c>
       <c r="O1060" t="n">
-        <v>390000</v>
+        <v>360000</v>
       </c>
       <c r="P1060" t="n">
-        <v>390000</v>
+        <v>360000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85182,11 +85182,11 @@
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>975</v>
+        <v>900</v>
       </c>
       <c r="T1060" t="n">
         <v>400</v>
@@ -85235,7 +85235,7 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
@@ -85244,16 +85244,16 @@
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1061" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="O1061" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P1061" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85262,11 +85262,11 @@
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T1061" t="n">
         <v>400</v>
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85315,41 +85315,41 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="N1062" t="n">
-        <v>12000</v>
+        <v>480000</v>
       </c>
       <c r="O1062" t="n">
-        <v>12000</v>
+        <v>480000</v>
       </c>
       <c r="P1062" t="n">
-        <v>12000</v>
+        <v>480000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T1062" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1063">
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85395,29 +85395,29 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="N1063" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="O1063" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="P1063" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
@@ -85426,10 +85426,10 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T1063" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1064">
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85475,41 +85475,41 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N1064" t="n">
-        <v>14000</v>
+        <v>420000</v>
       </c>
       <c r="O1064" t="n">
-        <v>14000</v>
+        <v>420000</v>
       </c>
       <c r="P1064" t="n">
-        <v>14000</v>
+        <v>420000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>875</v>
+        <v>1050</v>
       </c>
       <c r="T1064" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1065">
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,7 +85555,7 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
@@ -85564,16 +85564,16 @@
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N1065" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="O1065" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="P1065" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85582,11 +85582,11 @@
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>875</v>
+        <v>975</v>
       </c>
       <c r="T1065" t="n">
         <v>400</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85635,41 +85635,41 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N1066" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="O1066" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="P1066" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T1066" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1067">
@@ -85720,20 +85720,20 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1067" t="n">
         <v>180</v>
       </c>
       <c r="N1067" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1067" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1067" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85742,11 +85742,11 @@
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T1067" t="n">
         <v>16</v>
@@ -85800,35 +85800,435 @@
       </c>
       <c r="L1068" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1068" t="n">
+        <v>175</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1068" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1068" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1068" t="n">
+        <v>750</v>
+      </c>
+      <c r="T1068" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1069" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1069" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1069" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1069" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M1069" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q1069" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1069" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1069" t="n">
+        <v>875</v>
+      </c>
+      <c r="T1069" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1070" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1070" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1070" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1070" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1070" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>350000</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q1070" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1070" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1070" t="n">
+        <v>875</v>
+      </c>
+      <c r="T1070" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1071" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1071" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1071" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1071" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L1071" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1071" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1071" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1071" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1071" t="n">
+        <v>625</v>
+      </c>
+      <c r="T1071" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1072" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1072" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1072" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1072" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L1072" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1072" t="n">
+        <v>180</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1072" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1072" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1072" t="n">
+        <v>625</v>
+      </c>
+      <c r="T1072" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1073" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1073" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1073" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1073" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L1073" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M1068" t="n">
+      <c r="M1073" t="n">
         <v>100</v>
       </c>
-      <c r="N1068" t="n">
+      <c r="N1073" t="n">
         <v>8000</v>
       </c>
-      <c r="O1068" t="n">
+      <c r="O1073" t="n">
         <v>8000</v>
       </c>
-      <c r="P1068" t="n">
+      <c r="P1073" t="n">
         <v>8000</v>
       </c>
-      <c r="Q1068" t="inlineStr">
+      <c r="Q1073" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R1068" t="inlineStr">
+      <c r="R1073" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1068" t="n">
+      <c r="S1073" t="n">
         <v>500</v>
       </c>
-      <c r="T1068" t="n">
+      <c r="T1073" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1131"/>
+  <dimension ref="A1:T1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -89075,25 +89075,25 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N1109" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="O1109" t="n">
         <v>320000</v>
       </c>
       <c r="P1109" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
@@ -89106,7 +89106,7 @@
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="T1109" t="n">
         <v>400</v>
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89155,7 +89155,7 @@
       </c>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L1110" t="inlineStr">
@@ -89164,16 +89164,16 @@
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N1110" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O1110" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P1110" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89186,7 +89186,7 @@
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>700</v>
+        <v>825</v>
       </c>
       <c r="T1110" t="n">
         <v>400</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89235,25 +89235,25 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N1111" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="O1111" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="P1111" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89266,7 +89266,7 @@
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="T1111" t="n">
         <v>400</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -89315,25 +89315,25 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1112" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="O1112" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="P1112" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89346,7 +89346,7 @@
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T1112" t="n">
         <v>400</v>
@@ -89395,25 +89395,25 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N1113" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="O1113" t="n">
         <v>320000</v>
       </c>
       <c r="P1113" t="n">
-        <v>307895</v>
+        <v>320000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89426,7 +89426,7 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="T1113" t="n">
         <v>400</v>
@@ -89475,25 +89475,25 @@
       </c>
       <c r="K1114" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N1114" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O1114" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P1114" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89506,7 +89506,7 @@
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="T1114" t="n">
         <v>400</v>
@@ -89555,25 +89555,25 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N1115" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="O1115" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="P1115" t="n">
-        <v>391111</v>
+        <v>260000</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89586,7 +89586,7 @@
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>978</v>
+        <v>650</v>
       </c>
       <c r="T1115" t="n">
         <v>400</v>
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -89635,25 +89635,25 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N1116" t="n">
-        <v>360000</v>
+        <v>380000</v>
       </c>
       <c r="O1116" t="n">
-        <v>360000</v>
+        <v>380000</v>
       </c>
       <c r="P1116" t="n">
-        <v>360000</v>
+        <v>380000</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89662,11 +89662,11 @@
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T1116" t="n">
         <v>400</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89715,25 +89715,25 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N1117" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="O1117" t="n">
         <v>320000</v>
       </c>
       <c r="P1117" t="n">
-        <v>320000</v>
+        <v>307895</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89742,11 +89742,11 @@
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="T1117" t="n">
         <v>400</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89795,25 +89795,25 @@
       </c>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N1118" t="n">
-        <v>360000</v>
+        <v>270000</v>
       </c>
       <c r="O1118" t="n">
-        <v>360000</v>
+        <v>270000</v>
       </c>
       <c r="P1118" t="n">
-        <v>360000</v>
+        <v>270000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89826,7 +89826,7 @@
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>900</v>
+        <v>675</v>
       </c>
       <c r="T1118" t="n">
         <v>400</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89875,25 +89875,25 @@
       </c>
       <c r="K1119" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N1119" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="O1119" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="P1119" t="n">
-        <v>300000</v>
+        <v>391111</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89906,7 +89906,7 @@
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>750</v>
+        <v>978</v>
       </c>
       <c r="T1119" t="n">
         <v>400</v>
@@ -89955,7 +89955,7 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
@@ -89964,16 +89964,16 @@
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N1120" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="O1120" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="P1120" t="n">
-        <v>480000</v>
+        <v>360000</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89982,11 +89982,11 @@
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T1120" t="n">
         <v>400</v>
@@ -90035,7 +90035,7 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
@@ -90044,16 +90044,16 @@
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N1121" t="n">
-        <v>450000</v>
+        <v>320000</v>
       </c>
       <c r="O1121" t="n">
-        <v>450000</v>
+        <v>320000</v>
       </c>
       <c r="P1121" t="n">
-        <v>450000</v>
+        <v>320000</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90062,11 +90062,11 @@
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>1125</v>
+        <v>800</v>
       </c>
       <c r="T1121" t="n">
         <v>400</v>
@@ -90115,25 +90115,25 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N1122" t="n">
-        <v>420000</v>
+        <v>360000</v>
       </c>
       <c r="O1122" t="n">
-        <v>420000</v>
+        <v>360000</v>
       </c>
       <c r="P1122" t="n">
-        <v>420000</v>
+        <v>360000</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90142,11 +90142,11 @@
       </c>
       <c r="R1122" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T1122" t="n">
         <v>400</v>
@@ -90195,25 +90195,25 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N1123" t="n">
-        <v>390000</v>
+        <v>300000</v>
       </c>
       <c r="O1123" t="n">
-        <v>390000</v>
+        <v>300000</v>
       </c>
       <c r="P1123" t="n">
-        <v>390000</v>
+        <v>300000</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90222,11 +90222,11 @@
       </c>
       <c r="R1123" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="T1123" t="n">
         <v>400</v>
@@ -90275,25 +90275,25 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N1124" t="n">
-        <v>350000</v>
+        <v>480000</v>
       </c>
       <c r="O1124" t="n">
-        <v>350000</v>
+        <v>480000</v>
       </c>
       <c r="P1124" t="n">
-        <v>350000</v>
+        <v>480000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90302,11 +90302,11 @@
       </c>
       <c r="R1124" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T1124" t="n">
         <v>400</v>
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90355,41 +90355,41 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="N1125" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="O1125" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="P1125" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T1125" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1126">
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -90435,7 +90435,7 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
@@ -90444,32 +90444,32 @@
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="N1126" t="n">
-        <v>12000</v>
+        <v>420000</v>
       </c>
       <c r="O1126" t="n">
-        <v>12000</v>
+        <v>420000</v>
       </c>
       <c r="P1126" t="n">
-        <v>12000</v>
+        <v>420000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="T1126" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1127">
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90515,41 +90515,41 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N1127" t="n">
-        <v>14000</v>
+        <v>390000</v>
       </c>
       <c r="O1127" t="n">
-        <v>14000</v>
+        <v>390000</v>
       </c>
       <c r="P1127" t="n">
-        <v>14000</v>
+        <v>390000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>875</v>
+        <v>975</v>
       </c>
       <c r="T1127" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1128">
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90595,16 +90595,16 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N1128" t="n">
         <v>350000</v>
@@ -90622,7 +90622,7 @@
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1128" t="n">
@@ -90680,20 +90680,20 @@
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N1129" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1129" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1129" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90706,7 +90706,7 @@
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T1129" t="n">
         <v>16</v>
@@ -90760,20 +90760,20 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N1130" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1130" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1130" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90786,7 +90786,7 @@
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T1130" t="n">
         <v>16</v>
@@ -90840,35 +90840,355 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M1131" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q1131" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1131" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1131" t="n">
+        <v>875</v>
+      </c>
+      <c r="T1131" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1132" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1132" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1132" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1132" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L1132" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1132" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>350000</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q1132" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1132" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1132" t="n">
+        <v>875</v>
+      </c>
+      <c r="T1132" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1133" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1133" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1133" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1133" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L1133" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1133" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1133" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1133" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1133" t="n">
+        <v>625</v>
+      </c>
+      <c r="T1133" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1134" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1134" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1134" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1134" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1134" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L1134" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1134" t="n">
+        <v>180</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1134" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1134" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1134" t="n">
+        <v>625</v>
+      </c>
+      <c r="T1134" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1135" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1135" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1135" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1135" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L1135" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M1131" t="n">
+      <c r="M1135" t="n">
         <v>100</v>
       </c>
-      <c r="N1131" t="n">
+      <c r="N1135" t="n">
         <v>8000</v>
       </c>
-      <c r="O1131" t="n">
+      <c r="O1135" t="n">
         <v>8000</v>
       </c>
-      <c r="P1131" t="n">
+      <c r="P1135" t="n">
         <v>8000</v>
       </c>
-      <c r="Q1131" t="inlineStr">
+      <c r="Q1135" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R1131" t="inlineStr">
+      <c r="R1135" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1131" t="n">
+      <c r="S1135" t="n">
         <v>500</v>
       </c>
-      <c r="T1131" t="n">
+      <c r="T1135" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1207"/>
+  <dimension ref="A1:T1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44225</v>
+        <v>44890</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93955,41 +93955,41 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N1170" t="n">
-        <v>13000</v>
+        <v>420000</v>
       </c>
       <c r="O1170" t="n">
-        <v>13000</v>
+        <v>430000</v>
       </c>
       <c r="P1170" t="n">
-        <v>13000</v>
+        <v>425000</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>722</v>
+        <v>1012</v>
       </c>
       <c r="T1170" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44225</v>
+        <v>44890</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94035,7 +94035,7 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
@@ -94044,20 +94044,20 @@
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="N1171" t="n">
-        <v>11000</v>
+        <v>440000</v>
       </c>
       <c r="O1171" t="n">
-        <v>11000</v>
+        <v>440000</v>
       </c>
       <c r="P1171" t="n">
-        <v>11000</v>
+        <v>440000</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1171" t="inlineStr">
@@ -94066,10 +94066,10 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>611</v>
+        <v>1048</v>
       </c>
       <c r="T1171" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1172">
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44225</v>
+        <v>44890</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -94115,7 +94115,7 @@
       </c>
       <c r="K1172" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1172" t="inlineStr">
@@ -94124,32 +94124,32 @@
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N1172" t="n">
-        <v>8000</v>
+        <v>400000</v>
       </c>
       <c r="O1172" t="n">
-        <v>8000</v>
+        <v>400000</v>
       </c>
       <c r="P1172" t="n">
-        <v>8000</v>
+        <v>400000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>444</v>
+        <v>952</v>
       </c>
       <c r="T1172" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1173">
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44225</v>
+        <v>44890</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -94195,29 +94195,29 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="N1173" t="n">
-        <v>12000</v>
+        <v>400000</v>
       </c>
       <c r="O1173" t="n">
-        <v>13000</v>
+        <v>400000</v>
       </c>
       <c r="P1173" t="n">
-        <v>12538</v>
+        <v>400000</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1173" t="inlineStr">
@@ -94226,10 +94226,10 @@
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>784</v>
+        <v>952</v>
       </c>
       <c r="T1173" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1174">
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44225</v>
+        <v>44890</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -94275,29 +94275,29 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="N1174" t="n">
-        <v>14000</v>
+        <v>400000</v>
       </c>
       <c r="O1174" t="n">
-        <v>14000</v>
+        <v>400000</v>
       </c>
       <c r="P1174" t="n">
-        <v>14000</v>
+        <v>400000</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1174" t="inlineStr">
@@ -94306,10 +94306,10 @@
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>875</v>
+        <v>952</v>
       </c>
       <c r="T1174" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1175">
@@ -94355,29 +94355,29 @@
       </c>
       <c r="K1175" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="N1175" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O1175" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1175" t="n">
-        <v>10581</v>
+        <v>13000</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1175" t="inlineStr">
@@ -94386,10 +94386,10 @@
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="T1175" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1176">
@@ -94435,7 +94435,7 @@
       </c>
       <c r="K1176" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L1176" t="inlineStr">
@@ -94444,20 +94444,20 @@
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N1176" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O1176" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P1176" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1176" t="inlineStr">
@@ -94466,10 +94466,10 @@
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="T1176" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1177">
@@ -94515,7 +94515,7 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
@@ -94524,7 +94524,7 @@
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="N1177" t="n">
         <v>8000</v>
@@ -94537,7 +94537,7 @@
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1177" t="inlineStr">
@@ -94546,10 +94546,10 @@
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T1177" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1178">
@@ -94600,24 +94600,24 @@
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="N1178" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O1178" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1178" t="n">
-        <v>8000</v>
+        <v>12538</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1178" t="inlineStr">
@@ -94626,10 +94626,10 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>400</v>
+        <v>784</v>
       </c>
       <c r="T1178" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1179">
@@ -94680,24 +94680,24 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N1179" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O1179" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P1179" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1179" t="inlineStr">
@@ -94706,7 +94706,7 @@
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>438</v>
+        <v>875</v>
       </c>
       <c r="T1179" t="n">
         <v>16</v>
@@ -94755,29 +94755,29 @@
       </c>
       <c r="K1180" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>10</v>
+        <v>430</v>
       </c>
       <c r="N1180" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O1180" t="n">
-        <v>200000</v>
+        <v>11000</v>
       </c>
       <c r="P1180" t="n">
-        <v>200000</v>
+        <v>10581</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1180" t="inlineStr">
@@ -94786,10 +94786,10 @@
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>500</v>
+        <v>661</v>
       </c>
       <c r="T1180" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1181">
@@ -94835,29 +94835,29 @@
       </c>
       <c r="K1181" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="N1181" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1181" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P1181" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 20 kilos empedrada</t>
         </is>
       </c>
       <c r="R1181" t="inlineStr">
@@ -94866,10 +94866,10 @@
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>875</v>
+        <v>600</v>
       </c>
       <c r="T1181" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1182">
@@ -94915,29 +94915,29 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="N1182" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="O1182" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="P1182" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1182" t="inlineStr">
@@ -94946,10 +94946,10 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T1182" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1183">
@@ -94995,29 +94995,29 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="N1183" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1183" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1183" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 20 kilos empedrada</t>
         </is>
       </c>
       <c r="R1183" t="inlineStr">
@@ -95026,10 +95026,10 @@
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T1183" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1184">
@@ -95075,29 +95075,29 @@
       </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N1184" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="O1184" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="P1184" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R1184" t="inlineStr">
@@ -95106,10 +95106,10 @@
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="T1184" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1185">
@@ -95160,24 +95160,24 @@
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="N1185" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="O1185" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="P1185" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1185" t="inlineStr">
@@ -95186,10 +95186,10 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T1185" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1186">
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95235,7 +95235,7 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
@@ -95244,7 +95244,7 @@
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="N1186" t="n">
         <v>14000</v>
@@ -95257,7 +95257,7 @@
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1186" t="inlineStr">
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -95315,7 +95315,7 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
@@ -95324,16 +95324,16 @@
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N1187" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="O1187" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="P1187" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95342,11 +95342,11 @@
       </c>
       <c r="R1187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="T1187" t="n">
         <v>400</v>
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -95395,7 +95395,7 @@
       </c>
       <c r="K1188" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L1188" t="inlineStr">
@@ -95404,7 +95404,7 @@
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="N1188" t="n">
         <v>12000</v>
@@ -95417,7 +95417,7 @@
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1188" t="inlineStr">
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -95475,7 +95475,7 @@
       </c>
       <c r="K1189" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L1189" t="inlineStr">
@@ -95484,16 +95484,16 @@
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N1189" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O1189" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P1189" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95502,11 +95502,11 @@
       </c>
       <c r="R1189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="T1189" t="n">
         <v>400</v>
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -95555,7 +95555,7 @@
       </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L1190" t="inlineStr">
@@ -95564,20 +95564,20 @@
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="N1190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O1190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1190" t="inlineStr">
@@ -95586,7 +95586,7 @@
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T1190" t="n">
         <v>16</v>
@@ -95635,7 +95635,7 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
@@ -95644,20 +95644,20 @@
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="N1191" t="n">
-        <v>270000</v>
+        <v>14000</v>
       </c>
       <c r="O1191" t="n">
-        <v>270000</v>
+        <v>14000</v>
       </c>
       <c r="P1191" t="n">
-        <v>270000</v>
+        <v>14000</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R1191" t="inlineStr">
@@ -95666,10 +95666,10 @@
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="T1191" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1192">
@@ -95715,29 +95715,29 @@
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N1192" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O1192" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P1192" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1192" t="inlineStr">
@@ -95746,10 +95746,10 @@
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T1192" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1193">
@@ -95795,7 +95795,7 @@
       </c>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1193" t="inlineStr">
@@ -95804,32 +95804,32 @@
         </is>
       </c>
       <c r="M1193" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1193" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1193" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1193" t="n">
+        <v>750</v>
+      </c>
+      <c r="T1193" t="n">
         <v>16</v>
-      </c>
-      <c r="N1193" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O1193" t="n">
-        <v>240000</v>
-      </c>
-      <c r="P1193" t="n">
-        <v>240000</v>
-      </c>
-      <c r="Q1193" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1193" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1193" t="n">
-        <v>600</v>
-      </c>
-      <c r="T1193" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="1194">
@@ -95875,29 +95875,29 @@
       </c>
       <c r="K1194" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="N1194" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O1194" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="P1194" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1194" t="inlineStr">
@@ -95906,10 +95906,10 @@
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="T1194" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1195">
@@ -95955,7 +95955,7 @@
       </c>
       <c r="K1195" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L1195" t="inlineStr">
@@ -95964,20 +95964,20 @@
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="N1195" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O1195" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P1195" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R1195" t="inlineStr">
@@ -95986,10 +95986,10 @@
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T1195" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1196">
@@ -96040,36 +96040,36 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="N1196" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="O1196" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P1196" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="T1196" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1197">
@@ -96115,29 +96115,29 @@
       </c>
       <c r="K1197" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="N1197" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O1197" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P1197" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1197" t="inlineStr">
@@ -96146,10 +96146,10 @@
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="T1197" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1198">
@@ -96195,25 +96195,25 @@
       </c>
       <c r="K1198" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N1198" t="n">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="O1198" t="n">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="P1198" t="n">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96222,11 +96222,11 @@
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T1198" t="n">
         <v>400</v>
@@ -96275,25 +96275,25 @@
       </c>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N1199" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1199" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1199" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
@@ -96306,7 +96306,7 @@
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T1199" t="n">
         <v>16</v>
@@ -96355,41 +96355,41 @@
       </c>
       <c r="K1200" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="N1200" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O1200" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P1200" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T1200" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1201">
@@ -96407,7 +96407,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44263</v>
+        <v>44236</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -96435,41 +96435,41 @@
       </c>
       <c r="K1201" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N1201" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O1201" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="P1201" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="T1201" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1202">
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44263</v>
+        <v>44236</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -96515,41 +96515,41 @@
       </c>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="N1202" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="O1202" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="P1202" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>875</v>
+        <v>375</v>
       </c>
       <c r="T1202" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1203">
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44263</v>
+        <v>44236</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -96595,41 +96595,41 @@
       </c>
       <c r="K1203" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L1203" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="N1203" t="n">
-        <v>15000</v>
+        <v>120000</v>
       </c>
       <c r="O1203" t="n">
-        <v>15000</v>
+        <v>120000</v>
       </c>
       <c r="P1203" t="n">
-        <v>15000</v>
+        <v>120000</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>938</v>
+        <v>300</v>
       </c>
       <c r="T1203" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1204">
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44263</v>
+        <v>44236</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -96675,41 +96675,41 @@
       </c>
       <c r="K1204" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L1204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1204" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N1204" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O1204" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P1204" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="T1204" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1205">
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44263</v>
+        <v>44236</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -96755,7 +96755,7 @@
       </c>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L1205" t="inlineStr">
@@ -96764,16 +96764,16 @@
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="N1205" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1205" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1205" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96782,11 +96782,11 @@
       </c>
       <c r="R1205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T1205" t="n">
         <v>16</v>
@@ -96835,25 +96835,25 @@
       </c>
       <c r="K1206" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N1206" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O1206" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P1206" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
@@ -96866,7 +96866,7 @@
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="T1206" t="n">
         <v>400</v>
@@ -96920,35 +96920,435 @@
       </c>
       <c r="L1207" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1207" t="n">
+        <v>75</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q1207" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1207" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1207" t="n">
+        <v>875</v>
+      </c>
+      <c r="T1207" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1208" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1208" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1208" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1208" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1208" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L1208" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M1208" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q1208" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1208" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1208" t="n">
+        <v>938</v>
+      </c>
+      <c r="T1208" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1209" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1209" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1209" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1209" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1209" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1209" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L1209" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1209" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>270000</v>
+      </c>
+      <c r="Q1209" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1209" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1209" t="n">
+        <v>675</v>
+      </c>
+      <c r="T1209" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1210" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1210" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1210" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1210" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1210" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L1210" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1210" t="n">
+        <v>115</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1210" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1210" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1210" t="n">
+        <v>750</v>
+      </c>
+      <c r="T1210" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1211" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1211" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1211" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1211" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1211" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L1211" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M1207" t="n">
+      <c r="M1211" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q1211" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1211" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1211" t="n">
+        <v>550</v>
+      </c>
+      <c r="T1211" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1212" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1212" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1212" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J1212" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L1212" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1212" t="n">
         <v>80</v>
       </c>
-      <c r="N1207" t="n">
+      <c r="N1212" t="n">
         <v>9000</v>
       </c>
-      <c r="O1207" t="n">
+      <c r="O1212" t="n">
         <v>9000</v>
       </c>
-      <c r="P1207" t="n">
+      <c r="P1212" t="n">
         <v>9000</v>
       </c>
-      <c r="Q1207" t="inlineStr">
+      <c r="Q1212" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R1207" t="inlineStr">
+      <c r="R1212" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1207" t="n">
+      <c r="S1212" t="n">
         <v>562</v>
       </c>
-      <c r="T1207" t="n">
+      <c r="T1212" t="n">
         <v>16</v>
       </c>
     </row>
